--- a/AccessibleVaccineDashboardData/2021-01-27.xlsx
+++ b/AccessibleVaccineDashboardData/2021-01-27.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aearl914\Desktop\COVID-19\Daily County Updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5684C2B-60DA-4579-99A7-F0C9ECBF03FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFCC7F70-E4FE-4779-BEFA-8F78EA958FBA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="310">
   <si>
     <t>County Name</t>
   </si>
@@ -1549,7 +1549,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1570,7 +1570,7 @@
         <v>308</v>
       </c>
       <c r="B2" s="29">
-        <v>44221</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1675,7 +1675,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1739,15 +1739,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>1868596</v>
+        <v>1923503</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1571093</v>
+        <v>1603193</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>297503</v>
+        <v>320310</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1816,13 +1816,13 @@
         <v>4700</v>
       </c>
       <c r="D4" s="31">
-        <v>2084</v>
+        <v>2093</v>
       </c>
       <c r="E4" s="31">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="F4" s="31">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G4" s="32">
         <v>49346</v>
@@ -1851,13 +1851,13 @@
         <v>1600</v>
       </c>
       <c r="D5" s="31">
-        <v>1525</v>
+        <v>1590</v>
       </c>
       <c r="E5" s="31">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F5" s="31">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="G5" s="32">
         <v>13954</v>
@@ -1886,13 +1886,13 @@
         <v>12200</v>
       </c>
       <c r="D6" s="31">
-        <v>5633</v>
+        <v>5759</v>
       </c>
       <c r="E6" s="31">
-        <v>5150</v>
+        <v>5195</v>
       </c>
       <c r="F6" s="31">
-        <v>483</v>
+        <v>564</v>
       </c>
       <c r="G6" s="32">
         <v>70388</v>
@@ -1921,13 +1921,13 @@
         <v>600</v>
       </c>
       <c r="D7" s="31">
-        <v>1078</v>
+        <v>1128</v>
       </c>
       <c r="E7" s="31">
-        <v>983</v>
+        <v>1018</v>
       </c>
       <c r="F7" s="31">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G7" s="32">
         <v>19727</v>
@@ -1956,13 +1956,13 @@
         <v>400</v>
       </c>
       <c r="D8" s="31">
-        <v>581</v>
+        <v>636</v>
       </c>
       <c r="E8" s="31">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="F8" s="31">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G8" s="32">
         <v>7533</v>
@@ -1991,10 +1991,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="31">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E9" s="31">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F9" s="31">
         <v>13</v>
@@ -2026,13 +2026,13 @@
         <v>2900</v>
       </c>
       <c r="D10" s="31">
-        <v>1991</v>
+        <v>2078</v>
       </c>
       <c r="E10" s="31">
-        <v>1641</v>
+        <v>1675</v>
       </c>
       <c r="F10" s="31">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="G10" s="32">
         <v>39065</v>
@@ -2061,13 +2061,13 @@
         <v>1400</v>
       </c>
       <c r="D11" s="31">
-        <v>1547</v>
+        <v>1581</v>
       </c>
       <c r="E11" s="31">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="F11" s="31">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="G11" s="32">
         <v>25584</v>
@@ -2096,13 +2096,13 @@
         <v>2450</v>
       </c>
       <c r="D12" s="31">
-        <v>993</v>
+        <v>1244</v>
       </c>
       <c r="E12" s="31">
-        <v>952</v>
+        <v>1194</v>
       </c>
       <c r="F12" s="31">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G12" s="32">
         <v>5190</v>
@@ -2131,13 +2131,13 @@
         <v>200</v>
       </c>
       <c r="D13" s="31">
-        <v>1382</v>
+        <v>1405</v>
       </c>
       <c r="E13" s="31">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="F13" s="31">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G13" s="32">
         <v>19833</v>
@@ -2166,13 +2166,13 @@
         <v>4500</v>
       </c>
       <c r="D14" s="31">
-        <v>2772</v>
+        <v>2938</v>
       </c>
       <c r="E14" s="31">
-        <v>2483</v>
+        <v>2515</v>
       </c>
       <c r="F14" s="31">
-        <v>289</v>
+        <v>423</v>
       </c>
       <c r="G14" s="32">
         <v>70499</v>
@@ -2201,13 +2201,13 @@
         <v>1575</v>
       </c>
       <c r="D15" s="31">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E15" s="31">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F15" s="31">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G15" s="32">
         <v>3002</v>
@@ -2236,13 +2236,13 @@
         <v>7550</v>
       </c>
       <c r="D16" s="31">
-        <v>3132</v>
+        <v>3198</v>
       </c>
       <c r="E16" s="31">
-        <v>2961</v>
+        <v>3003</v>
       </c>
       <c r="F16" s="31">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="G16" s="32">
         <v>26904</v>
@@ -2271,13 +2271,13 @@
         <v>33650</v>
       </c>
       <c r="D17" s="31">
-        <v>17362</v>
+        <v>17968</v>
       </c>
       <c r="E17" s="31">
-        <v>14721</v>
+        <v>15182</v>
       </c>
       <c r="F17" s="31">
-        <v>2641</v>
+        <v>2786</v>
       </c>
       <c r="G17" s="32">
         <v>265191</v>
@@ -2306,13 +2306,13 @@
         <v>276025</v>
       </c>
       <c r="D18" s="31">
-        <v>140427</v>
+        <v>144424</v>
       </c>
       <c r="E18" s="31">
-        <v>107628</v>
+        <v>109623</v>
       </c>
       <c r="F18" s="31">
-        <v>32799</v>
+        <v>34801</v>
       </c>
       <c r="G18" s="32">
         <v>1541803</v>
@@ -2341,13 +2341,13 @@
         <v>300</v>
       </c>
       <c r="D19" s="31">
-        <v>1181</v>
+        <v>1214</v>
       </c>
       <c r="E19" s="31">
-        <v>1131</v>
+        <v>1159</v>
       </c>
       <c r="F19" s="31">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G19" s="32">
         <v>10177</v>
@@ -2376,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="32">
         <v>580</v>
@@ -2411,13 +2411,13 @@
         <v>2000</v>
       </c>
       <c r="D21" s="31">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="E21" s="31">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="F21" s="31">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G21" s="32">
         <v>15491</v>
@@ -2446,13 +2446,13 @@
         <v>10050</v>
       </c>
       <c r="D22" s="31">
-        <v>3654</v>
+        <v>3725</v>
       </c>
       <c r="E22" s="31">
-        <v>2850</v>
+        <v>2896</v>
       </c>
       <c r="F22" s="31">
-        <v>804</v>
+        <v>829</v>
       </c>
       <c r="G22" s="32">
         <v>78179</v>
@@ -2481,13 +2481,13 @@
         <v>16900</v>
       </c>
       <c r="D23" s="31">
-        <v>22762</v>
+        <v>23208</v>
       </c>
       <c r="E23" s="31">
-        <v>18387</v>
+        <v>18675</v>
       </c>
       <c r="F23" s="31">
-        <v>4375</v>
+        <v>4533</v>
       </c>
       <c r="G23" s="32">
         <v>295635</v>
@@ -2516,13 +2516,13 @@
         <v>18025</v>
       </c>
       <c r="D24" s="31">
-        <v>8423</v>
+        <v>8565</v>
       </c>
       <c r="E24" s="31">
-        <v>7408</v>
+        <v>7464</v>
       </c>
       <c r="F24" s="31">
-        <v>1015</v>
+        <v>1101</v>
       </c>
       <c r="G24" s="32">
         <v>185835</v>
@@ -2551,13 +2551,13 @@
         <v>1000</v>
       </c>
       <c r="D25" s="31">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E25" s="31">
         <v>650</v>
       </c>
       <c r="F25" s="31">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G25" s="32">
         <v>7291</v>
@@ -2586,13 +2586,13 @@
         <v>100</v>
       </c>
       <c r="D26" s="31">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E26" s="31">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F26" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="32">
         <v>1295</v>
@@ -2621,13 +2621,13 @@
         <v>600</v>
       </c>
       <c r="D27" s="31">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E27" s="31">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F27" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27" s="32">
         <v>5438</v>
@@ -2656,13 +2656,13 @@
         <v>1700</v>
       </c>
       <c r="D28" s="31">
-        <v>1326</v>
+        <v>1569</v>
       </c>
       <c r="E28" s="31">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="F28" s="31">
-        <v>251</v>
+        <v>485</v>
       </c>
       <c r="G28" s="32">
         <v>31586</v>
@@ -2691,13 +2691,13 @@
         <v>800</v>
       </c>
       <c r="D29" s="31">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="E29" s="31">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="F29" s="31">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G29" s="32">
         <v>14721</v>
@@ -2726,13 +2726,13 @@
         <v>3975</v>
       </c>
       <c r="D30" s="31">
-        <v>1639</v>
+        <v>1713</v>
       </c>
       <c r="E30" s="31">
-        <v>1415</v>
+        <v>1440</v>
       </c>
       <c r="F30" s="31">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="G30" s="32">
         <v>39423</v>
@@ -2761,13 +2761,13 @@
         <v>1400</v>
       </c>
       <c r="D31" s="31">
-        <v>1608</v>
+        <v>1707</v>
       </c>
       <c r="E31" s="31">
-        <v>1347</v>
+        <v>1416</v>
       </c>
       <c r="F31" s="31">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G31" s="32">
         <v>33813</v>
@@ -2796,13 +2796,13 @@
         <v>1000</v>
       </c>
       <c r="D32" s="31">
-        <v>1272</v>
+        <v>1308</v>
       </c>
       <c r="E32" s="31">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="F32" s="31">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="G32" s="32">
         <v>17169</v>
@@ -2831,13 +2831,13 @@
         <v>700</v>
       </c>
       <c r="D33" s="31">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="E33" s="31">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F33" s="31">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G33" s="32">
         <v>11666</v>
@@ -2866,13 +2866,13 @@
         <v>50250</v>
       </c>
       <c r="D34" s="31">
-        <v>35191</v>
+        <v>36230</v>
       </c>
       <c r="E34" s="31">
-        <v>29866</v>
+        <v>30188</v>
       </c>
       <c r="F34" s="31">
-        <v>5325</v>
+        <v>6042</v>
       </c>
       <c r="G34" s="32">
         <v>315242</v>
@@ -2901,13 +2901,13 @@
         <v>100</v>
       </c>
       <c r="D35" s="31">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="E35" s="31">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F35" s="31">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G35" s="32">
         <v>10054</v>
@@ -2936,13 +2936,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="31">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="E36" s="31">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="F36" s="31">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G36" s="32">
         <v>4769</v>
@@ -2971,13 +2971,13 @@
         <v>300</v>
       </c>
       <c r="D37" s="31">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="E37" s="31">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F37" s="31">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G37" s="32">
         <v>24447</v>
@@ -3006,13 +3006,13 @@
         <v>700</v>
       </c>
       <c r="D38" s="31">
-        <v>592</v>
+        <v>653</v>
       </c>
       <c r="E38" s="31">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="F38" s="31">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G38" s="32">
         <v>5574</v>
@@ -3041,13 +3041,13 @@
         <v>5400</v>
       </c>
       <c r="D39" s="31">
-        <v>1945</v>
+        <v>2047</v>
       </c>
       <c r="E39" s="31">
-        <v>1758</v>
+        <v>1835</v>
       </c>
       <c r="F39" s="31">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G39" s="32">
         <v>34171</v>
@@ -3076,13 +3076,13 @@
         <v>5200</v>
       </c>
       <c r="D40" s="31">
-        <v>2533</v>
+        <v>2708</v>
       </c>
       <c r="E40" s="31">
-        <v>2292</v>
+        <v>2382</v>
       </c>
       <c r="F40" s="31">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="G40" s="32">
         <v>41571</v>
@@ -3111,13 +3111,13 @@
         <v>1100</v>
       </c>
       <c r="D41" s="31">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E41" s="31">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F41" s="31">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G41" s="32">
         <v>5769</v>
@@ -3146,13 +3146,13 @@
         <v>2250</v>
       </c>
       <c r="D42" s="31">
-        <v>842</v>
+        <v>910</v>
       </c>
       <c r="E42" s="31">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="F42" s="31">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G42" s="32">
         <v>8544</v>
@@ -3181,13 +3181,13 @@
         <v>100</v>
       </c>
       <c r="D43" s="31">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="E43" s="31">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F43" s="31">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G43" s="32">
         <v>2167</v>
@@ -3216,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="31">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E44" s="31">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F44" s="31">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G44" s="32">
         <v>2839</v>
@@ -3251,13 +3251,13 @@
         <v>600</v>
       </c>
       <c r="D45" s="31">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="E45" s="31">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F45" s="31">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G45" s="32">
         <v>6555</v>
@@ -3286,13 +3286,13 @@
         <v>61275</v>
       </c>
       <c r="D46" s="31">
-        <v>52975</v>
+        <v>54798</v>
       </c>
       <c r="E46" s="31">
-        <v>43645</v>
+        <v>44954</v>
       </c>
       <c r="F46" s="31">
-        <v>9330</v>
+        <v>9844</v>
       </c>
       <c r="G46" s="32">
         <v>806242</v>
@@ -3321,13 +3321,13 @@
         <v>300</v>
       </c>
       <c r="D47" s="31">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E47" s="31">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F47" s="31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G47" s="32">
         <v>2177</v>
@@ -3356,13 +3356,13 @@
         <v>1600</v>
       </c>
       <c r="D48" s="31">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="E48" s="31">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="F48" s="31">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G48" s="32">
         <v>17682</v>
@@ -3391,13 +3391,13 @@
         <v>9700</v>
       </c>
       <c r="D49" s="31">
-        <v>7645</v>
+        <v>7897</v>
       </c>
       <c r="E49" s="31">
-        <v>5969</v>
+        <v>6075</v>
       </c>
       <c r="F49" s="31">
-        <v>1676</v>
+        <v>1822</v>
       </c>
       <c r="G49" s="32">
         <v>125758</v>
@@ -3426,13 +3426,13 @@
         <v>1775</v>
       </c>
       <c r="D50" s="31">
-        <v>1339</v>
+        <v>1414</v>
       </c>
       <c r="E50" s="31">
-        <v>1287</v>
+        <v>1335</v>
       </c>
       <c r="F50" s="31">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G50" s="32">
         <v>11046</v>
@@ -3461,13 +3461,13 @@
         <v>100</v>
       </c>
       <c r="D51" s="31">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E51" s="31">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F51" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G51" s="32">
         <v>2381</v>
@@ -3496,13 +3496,13 @@
         <v>1900</v>
       </c>
       <c r="D52" s="31">
-        <v>1555</v>
+        <v>1582</v>
       </c>
       <c r="E52" s="31">
-        <v>1393</v>
+        <v>1409</v>
       </c>
       <c r="F52" s="31">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G52" s="32">
         <v>32501</v>
@@ -3531,13 +3531,13 @@
         <v>3750</v>
       </c>
       <c r="D53" s="31">
-        <v>2478</v>
+        <v>2646</v>
       </c>
       <c r="E53" s="31">
-        <v>2257</v>
+        <v>2392</v>
       </c>
       <c r="F53" s="31">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="G53" s="32">
         <v>58277</v>
@@ -3601,13 +3601,13 @@
         <v>1175</v>
       </c>
       <c r="D55" s="31">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E55" s="31">
         <v>297</v>
       </c>
       <c r="F55" s="31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" s="32">
         <v>3483</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="31">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E56" s="31">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F56" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" s="32">
         <v>2687</v>
@@ -3671,13 +3671,13 @@
         <v>1175</v>
       </c>
       <c r="D57" s="31">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="E57" s="31">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F57" s="31">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="G57" s="32">
         <v>4386</v>
@@ -3741,13 +3741,13 @@
         <v>1475</v>
       </c>
       <c r="D59" s="31">
-        <v>568</v>
+        <v>685</v>
       </c>
       <c r="E59" s="31">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="F59" s="31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G59" s="32">
         <v>5092</v>
@@ -3776,13 +3776,13 @@
         <v>299125</v>
       </c>
       <c r="D60" s="31">
-        <v>139810</v>
+        <v>142481</v>
       </c>
       <c r="E60" s="31">
-        <v>117520</v>
+        <v>119237</v>
       </c>
       <c r="F60" s="31">
-        <v>22290</v>
+        <v>23244</v>
       </c>
       <c r="G60" s="32">
         <v>2015538</v>
@@ -3811,13 +3811,13 @@
         <v>600</v>
       </c>
       <c r="D61" s="31">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E61" s="31">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F61" s="31">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G61" s="32">
         <v>9997</v>
@@ -3846,13 +3846,13 @@
         <v>1700</v>
       </c>
       <c r="D62" s="31">
-        <v>954</v>
+        <v>1025</v>
       </c>
       <c r="E62" s="31">
-        <v>897</v>
+        <v>956</v>
       </c>
       <c r="F62" s="31">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G62" s="32">
         <v>14288</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="D63" s="31">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E63" s="31">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F63" s="31">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G63" s="32">
         <v>4312</v>
@@ -3916,13 +3916,13 @@
         <v>54125</v>
       </c>
       <c r="D64" s="31">
-        <v>29268</v>
+        <v>30218</v>
       </c>
       <c r="E64" s="31">
-        <v>24229</v>
+        <v>24750</v>
       </c>
       <c r="F64" s="31">
-        <v>5039</v>
+        <v>5468</v>
       </c>
       <c r="G64" s="32">
         <v>702429</v>
@@ -3951,13 +3951,13 @@
         <v>800</v>
       </c>
       <c r="D65" s="31">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="E65" s="31">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F65" s="31">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G65" s="32">
         <v>16610</v>
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="31">
+        <v>72</v>
+      </c>
+      <c r="E66" s="31">
         <v>63</v>
       </c>
-      <c r="E66" s="31">
-        <v>57</v>
-      </c>
       <c r="F66" s="31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G66" s="32">
         <v>1840</v>
@@ -4021,13 +4021,13 @@
         <v>2750</v>
       </c>
       <c r="D67" s="31">
-        <v>819</v>
+        <v>1140</v>
       </c>
       <c r="E67" s="31">
-        <v>745</v>
+        <v>1037</v>
       </c>
       <c r="F67" s="31">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G67" s="32">
         <v>7130</v>
@@ -4056,13 +4056,13 @@
         <v>100</v>
       </c>
       <c r="D68" s="31">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E68" s="31">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F68" s="31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G68" s="32">
         <v>2655</v>
@@ -4091,13 +4091,13 @@
         <v>300</v>
       </c>
       <c r="D69" s="31">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="E69" s="31">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F69" s="31">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G69" s="32">
         <v>8359</v>
@@ -4126,13 +4126,13 @@
         <v>900</v>
       </c>
       <c r="D70" s="31">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="E70" s="31">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F70" s="31">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="G70" s="32">
         <v>14718</v>
@@ -4161,13 +4161,13 @@
         <v>19900</v>
       </c>
       <c r="D71" s="31">
-        <v>8362</v>
+        <v>8452</v>
       </c>
       <c r="E71" s="31">
-        <v>6657</v>
+        <v>6670</v>
       </c>
       <c r="F71" s="31">
-        <v>1705</v>
+        <v>1782</v>
       </c>
       <c r="G71" s="32">
         <v>123303</v>
@@ -4196,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="31">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E72" s="31">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F72" s="31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G72" s="32">
         <v>1605</v>
@@ -4231,13 +4231,13 @@
         <v>108125</v>
       </c>
       <c r="D73" s="31">
-        <v>79191</v>
+        <v>83828</v>
       </c>
       <c r="E73" s="31">
-        <v>64345</v>
+        <v>67822</v>
       </c>
       <c r="F73" s="31">
-        <v>14846</v>
+        <v>16006</v>
       </c>
       <c r="G73" s="32">
         <v>640715</v>
@@ -4266,13 +4266,13 @@
         <v>4800</v>
       </c>
       <c r="D74" s="31">
-        <v>7491</v>
+        <v>7616</v>
       </c>
       <c r="E74" s="31">
-        <v>6356</v>
+        <v>6390</v>
       </c>
       <c r="F74" s="31">
-        <v>1135</v>
+        <v>1226</v>
       </c>
       <c r="G74" s="32">
         <v>146536</v>
@@ -4301,13 +4301,13 @@
         <v>1000</v>
       </c>
       <c r="D75" s="31">
-        <v>1396</v>
+        <v>1449</v>
       </c>
       <c r="E75" s="31">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="F75" s="31">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="G75" s="32">
         <v>34869</v>
@@ -4336,13 +4336,13 @@
         <v>2650</v>
       </c>
       <c r="D76" s="31">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="E76" s="31">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="F76" s="31">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" s="32">
         <v>14306</v>
@@ -4371,13 +4371,13 @@
         <v>4650</v>
       </c>
       <c r="D77" s="31">
-        <v>2101</v>
+        <v>2187</v>
       </c>
       <c r="E77" s="31">
-        <v>1674</v>
+        <v>1687</v>
       </c>
       <c r="F77" s="31">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="G77" s="32">
         <v>29681</v>
@@ -4406,13 +4406,13 @@
         <v>1400</v>
       </c>
       <c r="D78" s="31">
-        <v>988</v>
+        <v>1023</v>
       </c>
       <c r="E78" s="31">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="F78" s="31">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G78" s="32">
         <v>21209</v>
@@ -4441,13 +4441,13 @@
         <v>200</v>
       </c>
       <c r="D79" s="31">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="E79" s="31">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="F79" s="31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G79" s="32">
         <v>3139</v>
@@ -4476,13 +4476,13 @@
         <v>200</v>
       </c>
       <c r="D80" s="31">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E80" s="31">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F80" s="31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" s="32">
         <v>4283</v>
@@ -4511,13 +4511,13 @@
         <v>100</v>
       </c>
       <c r="D81" s="31">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E81" s="31">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F81" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G81" s="32">
         <v>937</v>
@@ -4546,13 +4546,13 @@
         <v>50575</v>
       </c>
       <c r="D82" s="31">
-        <v>51812</v>
+        <v>53635</v>
       </c>
       <c r="E82" s="31">
-        <v>43573</v>
+        <v>45026</v>
       </c>
       <c r="F82" s="31">
-        <v>8239</v>
+        <v>8609</v>
       </c>
       <c r="G82" s="32">
         <v>626861</v>
@@ -4581,13 +4581,13 @@
         <v>400</v>
       </c>
       <c r="D83" s="31">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="E83" s="31">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F83" s="31">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G83" s="32">
         <v>8327</v>
@@ -4616,13 +4616,13 @@
         <v>1100</v>
       </c>
       <c r="D84" s="31">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E84" s="31">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="F84" s="31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G84" s="32">
         <v>16551</v>
@@ -4651,13 +4651,13 @@
         <v>2475</v>
       </c>
       <c r="D85" s="31">
-        <v>1378</v>
+        <v>1557</v>
       </c>
       <c r="E85" s="31">
-        <v>1124</v>
+        <v>1281</v>
       </c>
       <c r="F85" s="31">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="G85" s="32">
         <v>15133</v>
@@ -4686,13 +4686,13 @@
         <v>1200</v>
       </c>
       <c r="D86" s="31">
-        <v>690</v>
+        <v>744</v>
       </c>
       <c r="E86" s="31">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F86" s="31">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="G86" s="32">
         <v>14875</v>
@@ -4721,13 +4721,13 @@
         <v>38225</v>
       </c>
       <c r="D87" s="31">
-        <v>29881</v>
+        <v>30301</v>
       </c>
       <c r="E87" s="31">
-        <v>23681</v>
+        <v>23976</v>
       </c>
       <c r="F87" s="31">
-        <v>6200</v>
+        <v>6325</v>
       </c>
       <c r="G87" s="32">
         <v>267032</v>
@@ -4756,13 +4756,13 @@
         <v>100</v>
       </c>
       <c r="D88" s="31">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E88" s="31">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F88" s="31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G88" s="32">
         <v>5021</v>
@@ -4791,13 +4791,13 @@
         <v>4300</v>
       </c>
       <c r="D89" s="31">
-        <v>1855</v>
+        <v>2047</v>
       </c>
       <c r="E89" s="31">
-        <v>1716</v>
+        <v>1828</v>
       </c>
       <c r="F89" s="31">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="G89" s="32">
         <v>22728</v>
@@ -4826,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="31">
+        <v>46</v>
+      </c>
+      <c r="E90" s="31">
         <v>41</v>
-      </c>
-      <c r="E90" s="31">
-        <v>36</v>
       </c>
       <c r="F90" s="31">
         <v>5</v>
@@ -4861,13 +4861,13 @@
         <v>100</v>
       </c>
       <c r="D91" s="31">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="E91" s="31">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F91" s="31">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G91" s="32">
         <v>6615</v>
@@ -4896,13 +4896,13 @@
         <v>1600</v>
       </c>
       <c r="D92" s="31">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="E92" s="31">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="F92" s="31">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G92" s="32">
         <v>15931</v>
@@ -4931,13 +4931,13 @@
         <v>1300</v>
       </c>
       <c r="D93" s="31">
-        <v>1138</v>
+        <v>1169</v>
       </c>
       <c r="E93" s="31">
-        <v>1084</v>
+        <v>1110</v>
       </c>
       <c r="F93" s="31">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G93" s="32">
         <v>17050</v>
@@ -4966,13 +4966,13 @@
         <v>21800</v>
       </c>
       <c r="D94" s="31">
-        <v>8398</v>
+        <v>8595</v>
       </c>
       <c r="E94" s="31">
-        <v>7090</v>
+        <v>7179</v>
       </c>
       <c r="F94" s="31">
-        <v>1308</v>
+        <v>1416</v>
       </c>
       <c r="G94" s="32">
         <v>107568</v>
@@ -5001,13 +5001,13 @@
         <v>16050</v>
       </c>
       <c r="D95" s="31">
-        <v>6687</v>
+        <v>6768</v>
       </c>
       <c r="E95" s="31">
-        <v>5091</v>
+        <v>5146</v>
       </c>
       <c r="F95" s="31">
-        <v>1596</v>
+        <v>1622</v>
       </c>
       <c r="G95" s="32">
         <v>97771</v>
@@ -5036,13 +5036,13 @@
         <v>1200</v>
       </c>
       <c r="D96" s="31">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="E96" s="31">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="F96" s="31">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G96" s="32">
         <v>23692</v>
@@ -5071,13 +5071,13 @@
         <v>6275</v>
       </c>
       <c r="D97" s="31">
-        <v>6647</v>
+        <v>6840</v>
       </c>
       <c r="E97" s="31">
-        <v>4908</v>
+        <v>4982</v>
       </c>
       <c r="F97" s="31">
-        <v>1739</v>
+        <v>1858</v>
       </c>
       <c r="G97" s="32">
         <v>130156</v>
@@ -5106,13 +5106,13 @@
         <v>2600</v>
       </c>
       <c r="D98" s="31">
-        <v>1909</v>
+        <v>1984</v>
       </c>
       <c r="E98" s="31">
-        <v>1679</v>
+        <v>1707</v>
       </c>
       <c r="F98" s="31">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="G98" s="32">
         <v>25066</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="31">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E99" s="31">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F99" s="31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G99" s="32">
         <v>2399</v>
@@ -5176,13 +5176,13 @@
         <v>1600</v>
       </c>
       <c r="D100" s="31">
-        <v>1683</v>
+        <v>1710</v>
       </c>
       <c r="E100" s="31">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="F100" s="31">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G100" s="32">
         <v>6957</v>
@@ -5211,13 +5211,13 @@
         <v>600</v>
       </c>
       <c r="D101" s="31">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="E101" s="31">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="F101" s="31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G101" s="32">
         <v>3992</v>
@@ -5246,13 +5246,13 @@
         <v>500</v>
       </c>
       <c r="D102" s="31">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="E102" s="31">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F102" s="31">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G102" s="32">
         <v>3017</v>
@@ -5281,13 +5281,13 @@
         <v>4700</v>
       </c>
       <c r="D103" s="31">
-        <v>2600</v>
+        <v>2648</v>
       </c>
       <c r="E103" s="31">
-        <v>2407</v>
+        <v>2428</v>
       </c>
       <c r="F103" s="31">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G103" s="32">
         <v>47640</v>
@@ -5316,13 +5316,13 @@
         <v>571325</v>
       </c>
       <c r="D104" s="31">
-        <v>304607</v>
+        <v>309095</v>
       </c>
       <c r="E104" s="31">
-        <v>255708</v>
+        <v>258581</v>
       </c>
       <c r="F104" s="31">
-        <v>48899</v>
+        <v>50514</v>
       </c>
       <c r="G104" s="32">
         <v>3573784</v>
@@ -5351,13 +5351,13 @@
         <v>2800</v>
       </c>
       <c r="D105" s="31">
-        <v>2349</v>
+        <v>2388</v>
       </c>
       <c r="E105" s="31">
-        <v>2044</v>
+        <v>2066</v>
       </c>
       <c r="F105" s="31">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="G105" s="32">
         <v>53015</v>
@@ -5386,13 +5386,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="31">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E106" s="31">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="F106" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G106" s="32">
         <v>4850</v>
@@ -5421,13 +5421,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="31">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E107" s="31">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F107" s="31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G107" s="32">
         <v>4635</v>
@@ -5456,13 +5456,13 @@
         <v>18125</v>
       </c>
       <c r="D108" s="31">
-        <v>12054</v>
+        <v>13131</v>
       </c>
       <c r="E108" s="31">
-        <v>10350</v>
+        <v>11234</v>
       </c>
       <c r="F108" s="31">
-        <v>1704</v>
+        <v>1897</v>
       </c>
       <c r="G108" s="32">
         <v>183387</v>
@@ -5491,13 +5491,13 @@
         <v>800</v>
       </c>
       <c r="D109" s="31">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E109" s="31">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F109" s="31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G109" s="32">
         <v>2788</v>
@@ -5526,13 +5526,13 @@
         <v>3400</v>
       </c>
       <c r="D110" s="31">
-        <v>3095</v>
+        <v>3209</v>
       </c>
       <c r="E110" s="31">
-        <v>2677</v>
+        <v>2709</v>
       </c>
       <c r="F110" s="31">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="G110" s="32">
         <v>67614</v>
@@ -5561,13 +5561,13 @@
         <v>107750</v>
       </c>
       <c r="D111" s="31">
-        <v>44161</v>
+        <v>46529</v>
       </c>
       <c r="E111" s="31">
-        <v>35896</v>
+        <v>37318</v>
       </c>
       <c r="F111" s="31">
-        <v>8265</v>
+        <v>9211</v>
       </c>
       <c r="G111" s="32">
         <v>649795</v>
@@ -5596,13 +5596,13 @@
         <v>1100</v>
       </c>
       <c r="D112" s="31">
-        <v>1613</v>
+        <v>1683</v>
       </c>
       <c r="E112" s="31">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="F112" s="31">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="G112" s="32">
         <v>29221</v>
@@ -5631,13 +5631,13 @@
         <v>900</v>
       </c>
       <c r="D113" s="31">
-        <v>1046</v>
+        <v>1108</v>
       </c>
       <c r="E113" s="31">
-        <v>913</v>
+        <v>953</v>
       </c>
       <c r="F113" s="31">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G113" s="32">
         <v>17482</v>
@@ -5666,13 +5666,13 @@
         <v>2200</v>
       </c>
       <c r="D114" s="31">
-        <v>1666</v>
+        <v>1769</v>
       </c>
       <c r="E114" s="31">
-        <v>1542</v>
+        <v>1596</v>
       </c>
       <c r="F114" s="31">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="G114" s="32">
         <v>50235</v>
@@ -5701,13 +5701,13 @@
         <v>2400</v>
       </c>
       <c r="D115" s="31">
-        <v>1962</v>
+        <v>1993</v>
       </c>
       <c r="E115" s="31">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="F115" s="31">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G115" s="32">
         <v>29578</v>
@@ -5736,13 +5736,13 @@
         <v>1500</v>
       </c>
       <c r="D116" s="31">
-        <v>1332</v>
+        <v>1363</v>
       </c>
       <c r="E116" s="31">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="F116" s="31">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G116" s="32">
         <v>19208</v>
@@ -5771,13 +5771,13 @@
         <v>2700</v>
       </c>
       <c r="D117" s="31">
-        <v>1261</v>
+        <v>1274</v>
       </c>
       <c r="E117" s="31">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F117" s="31">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G117" s="32">
         <v>28821</v>
@@ -5806,13 +5806,13 @@
         <v>100</v>
       </c>
       <c r="D118" s="31">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E118" s="31">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F118" s="31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G118" s="32">
         <v>2968</v>
@@ -5841,13 +5841,13 @@
         <v>7050</v>
       </c>
       <c r="D119" s="31">
-        <v>4952</v>
+        <v>5230</v>
       </c>
       <c r="E119" s="31">
-        <v>3727</v>
+        <v>3758</v>
       </c>
       <c r="F119" s="31">
-        <v>1225</v>
+        <v>1472</v>
       </c>
       <c r="G119" s="32">
         <v>77702</v>
@@ -5876,13 +5876,13 @@
         <v>600</v>
       </c>
       <c r="D120" s="31">
-        <v>1127</v>
+        <v>1205</v>
       </c>
       <c r="E120" s="31">
-        <v>1078</v>
+        <v>1107</v>
       </c>
       <c r="F120" s="31">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="G120" s="32">
         <v>15984</v>
@@ -5911,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="31">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E121" s="31">
         <v>61</v>
       </c>
       <c r="F121" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G121" s="32">
         <v>1345</v>
@@ -5946,13 +5946,13 @@
         <v>500</v>
       </c>
       <c r="D122" s="31">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E122" s="31">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F122" s="31">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G122" s="32">
         <v>7488</v>
@@ -5981,13 +5981,13 @@
         <v>2775</v>
       </c>
       <c r="D123" s="31">
-        <v>931</v>
+        <v>1063</v>
       </c>
       <c r="E123" s="31">
-        <v>847</v>
+        <v>960</v>
       </c>
       <c r="F123" s="31">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G123" s="32">
         <v>11172</v>
@@ -6016,13 +6016,13 @@
         <v>5100</v>
       </c>
       <c r="D124" s="31">
-        <v>1627</v>
+        <v>1670</v>
       </c>
       <c r="E124" s="31">
-        <v>1573</v>
+        <v>1599</v>
       </c>
       <c r="F124" s="31">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G124" s="32">
         <v>28248</v>
@@ -6051,10 +6051,10 @@
         <v>100</v>
       </c>
       <c r="D125" s="31">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E125" s="31">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F125" s="31">
         <v>3</v>
@@ -6086,13 +6086,13 @@
         <v>22900</v>
       </c>
       <c r="D126" s="31">
-        <v>7355</v>
+        <v>7677</v>
       </c>
       <c r="E126" s="31">
-        <v>6756</v>
+        <v>7022</v>
       </c>
       <c r="F126" s="31">
-        <v>599</v>
+        <v>655</v>
       </c>
       <c r="G126" s="32">
         <v>198728</v>
@@ -6121,13 +6121,13 @@
         <v>100</v>
       </c>
       <c r="D127" s="31">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="E127" s="31">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F127" s="31">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G127" s="32">
         <v>3764</v>
@@ -6156,13 +6156,13 @@
         <v>3250</v>
       </c>
       <c r="D128" s="31">
-        <v>2602</v>
+        <v>2656</v>
       </c>
       <c r="E128" s="31">
-        <v>2390</v>
+        <v>2403</v>
       </c>
       <c r="F128" s="31">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="G128" s="32">
         <v>29988</v>
@@ -6191,13 +6191,13 @@
         <v>3500</v>
       </c>
       <c r="D129" s="31">
-        <v>6681</v>
+        <v>6935</v>
       </c>
       <c r="E129" s="31">
-        <v>5802</v>
+        <v>5961</v>
       </c>
       <c r="F129" s="31">
-        <v>879</v>
+        <v>974</v>
       </c>
       <c r="G129" s="32">
         <v>135188</v>
@@ -6226,13 +6226,13 @@
         <v>400</v>
       </c>
       <c r="D130" s="31">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="E130" s="31">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F130" s="31">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G130" s="32">
         <v>16827</v>
@@ -6261,13 +6261,13 @@
         <v>1300</v>
       </c>
       <c r="D131" s="31">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="E131" s="31">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F131" s="31">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G131" s="32">
         <v>12523</v>
@@ -6296,13 +6296,13 @@
         <v>3750</v>
       </c>
       <c r="D132" s="31">
-        <v>5507</v>
+        <v>5773</v>
       </c>
       <c r="E132" s="31">
-        <v>4522</v>
+        <v>4638</v>
       </c>
       <c r="F132" s="31">
-        <v>985</v>
+        <v>1135</v>
       </c>
       <c r="G132" s="32">
         <v>104736</v>
@@ -6331,13 +6331,13 @@
         <v>2300</v>
       </c>
       <c r="D133" s="31">
-        <v>3331</v>
+        <v>3394</v>
       </c>
       <c r="E133" s="31">
-        <v>2484</v>
+        <v>2522</v>
       </c>
       <c r="F133" s="31">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="G133" s="32">
         <v>38074</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="31">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E135" s="31">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F135" s="31">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>3200</v>
       </c>
       <c r="D136" s="31">
-        <v>2605</v>
+        <v>2656</v>
       </c>
       <c r="E136" s="31">
-        <v>1894</v>
+        <v>1920</v>
       </c>
       <c r="F136" s="31">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="G136" s="32">
         <v>43611</v>
@@ -6471,13 +6471,13 @@
         <v>300</v>
       </c>
       <c r="D137" s="31">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E137" s="31">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F137" s="31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G137" s="32">
         <v>3844</v>
@@ -6506,10 +6506,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E138" s="31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F138" s="31">
         <v>1</v>
@@ -6541,10 +6541,10 @@
         <v>100</v>
       </c>
       <c r="D139" s="31">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E139" s="31">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F139" s="31">
         <v>1</v>
@@ -6576,13 +6576,13 @@
         <v>5050</v>
       </c>
       <c r="D140" s="31">
-        <v>2765</v>
+        <v>2897</v>
       </c>
       <c r="E140" s="31">
-        <v>2632</v>
+        <v>2734</v>
       </c>
       <c r="F140" s="31">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="G140" s="32">
         <v>25862</v>
@@ -6611,13 +6611,13 @@
         <v>300</v>
       </c>
       <c r="D141" s="31">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="E141" s="31">
         <v>296</v>
       </c>
       <c r="F141" s="31">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G141" s="32">
         <v>2861</v>
@@ -6646,13 +6646,13 @@
         <v>2150</v>
       </c>
       <c r="D142" s="31">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="E142" s="31">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F142" s="31">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G142" s="32">
         <v>6105</v>
@@ -6681,13 +6681,13 @@
         <v>3700</v>
       </c>
       <c r="D143" s="31">
-        <v>2649</v>
+        <v>2701</v>
       </c>
       <c r="E143" s="31">
-        <v>2366</v>
+        <v>2371</v>
       </c>
       <c r="F143" s="31">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="G143" s="32">
         <v>40212</v>
@@ -6716,13 +6716,13 @@
         <v>400</v>
       </c>
       <c r="D144" s="31">
-        <v>915</v>
+        <v>1172</v>
       </c>
       <c r="E144" s="31">
-        <v>856</v>
+        <v>1085</v>
       </c>
       <c r="F144" s="31">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="G144" s="32">
         <v>9647</v>
@@ -6751,13 +6751,13 @@
         <v>300</v>
       </c>
       <c r="D145" s="31">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="E145" s="31">
-        <v>525</v>
+        <v>565</v>
       </c>
       <c r="F145" s="31">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G145" s="32">
         <v>17275</v>
@@ -6786,13 +6786,13 @@
         <v>1900</v>
       </c>
       <c r="D146" s="31">
-        <v>1194</v>
+        <v>1253</v>
       </c>
       <c r="E146" s="31">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="F146" s="31">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="G146" s="32">
         <v>16041</v>
@@ -6821,13 +6821,13 @@
         <v>600</v>
       </c>
       <c r="D147" s="31">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="E147" s="31">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="F147" s="31">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G147" s="32">
         <v>13837</v>
@@ -6856,13 +6856,13 @@
         <v>600</v>
       </c>
       <c r="D148" s="31">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="E148" s="31">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F148" s="31">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G148" s="32">
         <v>14066</v>
@@ -6891,13 +6891,13 @@
         <v>5450</v>
       </c>
       <c r="D149" s="31">
-        <v>2483</v>
+        <v>2572</v>
       </c>
       <c r="E149" s="31">
-        <v>2360</v>
+        <v>2431</v>
       </c>
       <c r="F149" s="31">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G149" s="32">
         <v>70912</v>
@@ -6926,13 +6926,13 @@
         <v>1500</v>
       </c>
       <c r="D150" s="31">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="E150" s="31">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="F150" s="31">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G150" s="32">
         <v>19033</v>
@@ -6961,13 +6961,13 @@
         <v>100</v>
       </c>
       <c r="D151" s="31">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E151" s="31">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F151" s="31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G151" s="32">
         <v>2496</v>
@@ -6996,13 +6996,13 @@
         <v>200</v>
       </c>
       <c r="D152" s="31">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E152" s="31">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F152" s="31">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G152" s="32">
         <v>9966</v>
@@ -7031,13 +7031,13 @@
         <v>100</v>
       </c>
       <c r="D153" s="31">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="E153" s="31">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="F153" s="31">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G153" s="32">
         <v>18642</v>
@@ -7066,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E154" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F154" s="31">
         <v>0</v>
@@ -7101,13 +7101,13 @@
         <v>73900</v>
       </c>
       <c r="D155" s="31">
-        <v>35955</v>
+        <v>37535</v>
       </c>
       <c r="E155" s="31">
-        <v>30140</v>
+        <v>30989</v>
       </c>
       <c r="F155" s="31">
-        <v>5815</v>
+        <v>6546</v>
       </c>
       <c r="G155" s="32">
         <v>243899</v>
@@ -7136,13 +7136,13 @@
         <v>200</v>
       </c>
       <c r="D156" s="31">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="E156" s="31">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F156" s="31">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G156" s="32">
         <v>4820</v>
@@ -7171,13 +7171,13 @@
         <v>700</v>
       </c>
       <c r="D157" s="31">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="E157" s="31">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F157" s="31">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G157" s="32">
         <v>11353</v>
@@ -7206,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="31">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E158" s="31">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F158" s="31">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G158" s="32">
         <v>8117</v>
@@ -7241,13 +7241,13 @@
         <v>600</v>
       </c>
       <c r="D159" s="31">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E159" s="31">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F159" s="31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" s="32">
         <v>4306</v>
@@ -7276,13 +7276,13 @@
         <v>200</v>
       </c>
       <c r="D160" s="31">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="E160" s="31">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F160" s="31">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="G160" s="32">
         <v>3567</v>
@@ -7311,13 +7311,13 @@
         <v>2500</v>
       </c>
       <c r="D161" s="31">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="E161" s="31">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="F161" s="31">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G161" s="32">
         <v>28353</v>
@@ -7346,13 +7346,13 @@
         <v>4800</v>
       </c>
       <c r="D162" s="31">
-        <v>2742</v>
+        <v>2933</v>
       </c>
       <c r="E162" s="31">
-        <v>2453</v>
+        <v>2485</v>
       </c>
       <c r="F162" s="31">
-        <v>289</v>
+        <v>448</v>
       </c>
       <c r="G162" s="32">
         <v>42357</v>
@@ -7381,13 +7381,13 @@
         <v>600</v>
       </c>
       <c r="D163" s="31">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E163" s="31">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F163" s="31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G163" s="32">
         <v>6675</v>
@@ -7416,13 +7416,13 @@
         <v>23700</v>
       </c>
       <c r="D164" s="31">
-        <v>14494</v>
+        <v>14887</v>
       </c>
       <c r="E164" s="31">
-        <v>13119</v>
+        <v>13307</v>
       </c>
       <c r="F164" s="31">
-        <v>1375</v>
+        <v>1580</v>
       </c>
       <c r="G164" s="32">
         <v>198642</v>
@@ -7486,13 +7486,13 @@
         <v>1400</v>
       </c>
       <c r="D166" s="31">
-        <v>2326</v>
+        <v>2423</v>
       </c>
       <c r="E166" s="31">
-        <v>1950</v>
+        <v>2002</v>
       </c>
       <c r="F166" s="31">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="G166" s="32">
         <v>42991</v>
@@ -7521,13 +7521,13 @@
         <v>100</v>
       </c>
       <c r="D167" s="31">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E167" s="31">
         <v>86</v>
       </c>
       <c r="F167" s="31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G167" s="32">
         <v>1759</v>
@@ -7556,13 +7556,13 @@
         <v>16750</v>
       </c>
       <c r="D168" s="31">
-        <v>7206</v>
+        <v>7687</v>
       </c>
       <c r="E168" s="31">
-        <v>5230</v>
+        <v>5673</v>
       </c>
       <c r="F168" s="31">
-        <v>1976</v>
+        <v>2014</v>
       </c>
       <c r="G168" s="32">
         <v>132357</v>
@@ -7591,13 +7591,13 @@
         <v>1800</v>
       </c>
       <c r="D169" s="31">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="E169" s="31">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="F169" s="31">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G169" s="32">
         <v>19805</v>
@@ -7626,13 +7626,13 @@
         <v>200</v>
       </c>
       <c r="D170" s="31">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E170" s="31">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F170" s="31">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G170" s="32">
         <v>3970</v>
@@ -7661,13 +7661,13 @@
         <v>600</v>
       </c>
       <c r="D171" s="31">
+        <v>321</v>
+      </c>
+      <c r="E171" s="31">
         <v>290</v>
       </c>
-      <c r="E171" s="31">
-        <v>284</v>
-      </c>
       <c r="F171" s="31">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G171" s="32">
         <v>7087</v>
@@ -7696,13 +7696,13 @@
         <v>1275</v>
       </c>
       <c r="D172" s="31">
-        <v>1060</v>
+        <v>1428</v>
       </c>
       <c r="E172" s="31">
-        <v>987</v>
+        <v>1351</v>
       </c>
       <c r="F172" s="31">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G172" s="32">
         <v>15803</v>
@@ -7731,13 +7731,13 @@
         <v>47850</v>
       </c>
       <c r="D173" s="31">
-        <v>21554</v>
+        <v>22179</v>
       </c>
       <c r="E173" s="31">
-        <v>18506</v>
+        <v>18885</v>
       </c>
       <c r="F173" s="31">
-        <v>3048</v>
+        <v>3294</v>
       </c>
       <c r="G173" s="32">
         <v>470846</v>
@@ -7766,13 +7766,13 @@
         <v>1100</v>
       </c>
       <c r="D174" s="31">
-        <v>1297</v>
+        <v>1407</v>
       </c>
       <c r="E174" s="31">
-        <v>1216</v>
+        <v>1276</v>
       </c>
       <c r="F174" s="31">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G174" s="32">
         <v>15513</v>
@@ -7801,13 +7801,13 @@
         <v>300</v>
       </c>
       <c r="D175" s="31">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="E175" s="31">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F175" s="31">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G175" s="32">
         <v>9938</v>
@@ -7836,13 +7836,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="31">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E176" s="31">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F176" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G176" s="32">
         <v>1016</v>
@@ -7871,13 +7871,13 @@
         <v>6700</v>
       </c>
       <c r="D177" s="31">
-        <v>4506</v>
+        <v>4751</v>
       </c>
       <c r="E177" s="31">
-        <v>4219</v>
+        <v>4237</v>
       </c>
       <c r="F177" s="31">
-        <v>287</v>
+        <v>514</v>
       </c>
       <c r="G177" s="32">
         <v>52561</v>
@@ -7906,13 +7906,13 @@
         <v>4000</v>
       </c>
       <c r="D178" s="31">
-        <v>2029</v>
+        <v>2108</v>
       </c>
       <c r="E178" s="31">
-        <v>1926</v>
+        <v>1954</v>
       </c>
       <c r="F178" s="31">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="G178" s="32">
         <v>40888</v>
@@ -7941,13 +7941,13 @@
         <v>400</v>
       </c>
       <c r="D179" s="31">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E179" s="31">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F179" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G179" s="32">
         <v>11070</v>
@@ -7976,13 +7976,13 @@
         <v>1600</v>
       </c>
       <c r="D180" s="31">
-        <v>1450</v>
+        <v>1490</v>
       </c>
       <c r="E180" s="31">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="F180" s="31">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G180" s="32">
         <v>10998</v>
@@ -8011,13 +8011,13 @@
         <v>48525</v>
       </c>
       <c r="D181" s="31">
-        <v>23249</v>
+        <v>24066</v>
       </c>
       <c r="E181" s="31">
-        <v>17390</v>
+        <v>17644</v>
       </c>
       <c r="F181" s="31">
-        <v>5859</v>
+        <v>6422</v>
       </c>
       <c r="G181" s="32">
         <v>282299</v>
@@ -8046,13 +8046,13 @@
         <v>900</v>
       </c>
       <c r="D182" s="31">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="E182" s="31">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F182" s="31">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G182" s="32">
         <v>7508</v>
@@ -8081,13 +8081,13 @@
         <v>100</v>
       </c>
       <c r="D183" s="31">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E183" s="31">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F183" s="31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G183" s="32">
         <v>1714</v>
@@ -8116,13 +8116,13 @@
         <v>1200</v>
       </c>
       <c r="D184" s="31">
-        <v>1547</v>
+        <v>1588</v>
       </c>
       <c r="E184" s="31">
-        <v>1447</v>
+        <v>1469</v>
       </c>
       <c r="F184" s="31">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G184" s="32">
         <v>65680</v>
@@ -8151,13 +8151,13 @@
         <v>1300</v>
       </c>
       <c r="D185" s="31">
+        <v>956</v>
+      </c>
+      <c r="E185" s="31">
         <v>928</v>
       </c>
-      <c r="E185" s="31">
-        <v>901</v>
-      </c>
       <c r="F185" s="31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G185" s="32">
         <v>23268</v>
@@ -8186,13 +8186,13 @@
         <v>1200</v>
       </c>
       <c r="D186" s="31">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="E186" s="31">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F186" s="31">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G186" s="32">
         <v>19325</v>
@@ -8221,13 +8221,13 @@
         <v>9200</v>
       </c>
       <c r="D187" s="31">
-        <v>6985</v>
+        <v>7302</v>
       </c>
       <c r="E187" s="31">
-        <v>6363</v>
+        <v>6593</v>
       </c>
       <c r="F187" s="31">
-        <v>622</v>
+        <v>709</v>
       </c>
       <c r="G187" s="32">
         <v>112329</v>
@@ -8256,13 +8256,13 @@
         <v>500</v>
       </c>
       <c r="D188" s="31">
-        <v>583</v>
+        <v>682</v>
       </c>
       <c r="E188" s="31">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="F188" s="31">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G188" s="32">
         <v>7111</v>
@@ -8291,13 +8291,13 @@
         <v>1300</v>
       </c>
       <c r="D189" s="31">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="E189" s="31">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F189" s="31">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G189" s="32">
         <v>11723</v>
@@ -8326,13 +8326,13 @@
         <v>2800</v>
       </c>
       <c r="D190" s="31">
-        <v>1587</v>
+        <v>1821</v>
       </c>
       <c r="E190" s="31">
-        <v>1527</v>
+        <v>1727</v>
       </c>
       <c r="F190" s="31">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G190" s="32">
         <v>41511</v>
@@ -8361,13 +8361,13 @@
         <v>60050</v>
       </c>
       <c r="D191" s="31">
-        <v>13154</v>
+        <v>13868</v>
       </c>
       <c r="E191" s="31">
-        <v>11922</v>
+        <v>12277</v>
       </c>
       <c r="F191" s="31">
-        <v>1232</v>
+        <v>1591</v>
       </c>
       <c r="G191" s="32">
         <v>89806</v>
@@ -8396,13 +8396,13 @@
         <v>400</v>
       </c>
       <c r="D192" s="31">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E192" s="31">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F192" s="31">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G192" s="32">
         <v>5092</v>
@@ -8431,13 +8431,13 @@
         <v>200</v>
       </c>
       <c r="D193" s="31">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E193" s="31">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F193" s="31">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G193" s="32">
         <v>10262</v>
@@ -8466,13 +8466,13 @@
         <v>4600</v>
       </c>
       <c r="D194" s="31">
-        <v>20224</v>
+        <v>21366</v>
       </c>
       <c r="E194" s="31">
-        <v>18131</v>
+        <v>18679</v>
       </c>
       <c r="F194" s="31">
-        <v>2093</v>
+        <v>2687</v>
       </c>
       <c r="G194" s="32">
         <v>109144</v>
@@ -8501,13 +8501,13 @@
         <v>200</v>
       </c>
       <c r="D195" s="31">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E195" s="31">
         <v>117</v>
       </c>
       <c r="F195" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G195" s="32">
         <v>2900</v>
@@ -8536,13 +8536,13 @@
         <v>0</v>
       </c>
       <c r="D196" s="31">
+        <v>240</v>
+      </c>
+      <c r="E196" s="31">
         <v>228</v>
       </c>
-      <c r="E196" s="31">
-        <v>219</v>
-      </c>
       <c r="F196" s="31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G196" s="32">
         <v>2882</v>
@@ -8571,13 +8571,13 @@
         <v>500</v>
       </c>
       <c r="D197" s="31">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="E197" s="31">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F197" s="31">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G197" s="32">
         <v>9511</v>
@@ -8606,10 +8606,10 @@
         <v>2450</v>
       </c>
       <c r="D198" s="31">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E198" s="31">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F198" s="31">
         <v>15</v>
@@ -8641,13 +8641,13 @@
         <v>600</v>
       </c>
       <c r="D199" s="31">
-        <v>717</v>
+        <v>769</v>
       </c>
       <c r="E199" s="31">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F199" s="31">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G199" s="32">
         <v>5497</v>
@@ -8676,10 +8676,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="31">
+        <v>55</v>
+      </c>
+      <c r="E200" s="31">
         <v>53</v>
-      </c>
-      <c r="E200" s="31">
-        <v>51</v>
       </c>
       <c r="F200" s="31">
         <v>2</v>
@@ -8711,13 +8711,13 @@
         <v>700</v>
       </c>
       <c r="D201" s="31">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="E201" s="31">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F201" s="31">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G201" s="32">
         <v>14216</v>
@@ -8746,13 +8746,13 @@
         <v>4400</v>
       </c>
       <c r="D202" s="31">
-        <v>5009</v>
+        <v>5241</v>
       </c>
       <c r="E202" s="31">
-        <v>4229</v>
+        <v>4358</v>
       </c>
       <c r="F202" s="31">
-        <v>780</v>
+        <v>883</v>
       </c>
       <c r="G202" s="32">
         <v>81869</v>
@@ -8781,13 +8781,13 @@
         <v>1300</v>
       </c>
       <c r="D203" s="31">
-        <v>907</v>
+        <v>984</v>
       </c>
       <c r="E203" s="31">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="F203" s="31">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="G203" s="32">
         <v>7992</v>
@@ -8816,13 +8816,13 @@
         <v>1100</v>
       </c>
       <c r="D204" s="31">
-        <v>1616</v>
+        <v>1667</v>
       </c>
       <c r="E204" s="31">
-        <v>1410</v>
+        <v>1442</v>
       </c>
       <c r="F204" s="31">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G204" s="32">
         <v>44061</v>
@@ -8851,13 +8851,13 @@
         <v>1300</v>
       </c>
       <c r="D205" s="31">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E205" s="31">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F205" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G205" s="32">
         <v>9116</v>
@@ -8886,13 +8886,13 @@
         <v>800</v>
       </c>
       <c r="D206" s="31">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E206" s="31">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F206" s="31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G206" s="32">
         <v>6982</v>
@@ -8921,13 +8921,13 @@
         <v>1100</v>
       </c>
       <c r="D207" s="31">
-        <v>880</v>
+        <v>948</v>
       </c>
       <c r="E207" s="31">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="F207" s="31">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G207" s="32">
         <v>23713</v>
@@ -8956,13 +8956,13 @@
         <v>1700</v>
       </c>
       <c r="D208" s="31">
-        <v>2358</v>
+        <v>2489</v>
       </c>
       <c r="E208" s="31">
-        <v>1885</v>
+        <v>1974</v>
       </c>
       <c r="F208" s="31">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="G208" s="32">
         <v>51382</v>
@@ -8991,13 +8991,13 @@
         <v>200</v>
       </c>
       <c r="D209" s="31">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E209" s="31">
         <v>86</v>
       </c>
       <c r="F209" s="31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G209" s="32">
         <v>5108</v>
@@ -9026,13 +9026,13 @@
         <v>200</v>
       </c>
       <c r="D210" s="31">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E210" s="31">
         <v>113</v>
       </c>
       <c r="F210" s="31">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G210" s="32">
         <v>2184</v>
@@ -9061,13 +9061,13 @@
         <v>1875</v>
       </c>
       <c r="D211" s="31">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="E211" s="31">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="F211" s="31">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G211" s="32">
         <v>12956</v>
@@ -9096,10 +9096,10 @@
         <v>100</v>
       </c>
       <c r="D212" s="31">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E212" s="31">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F212" s="31">
         <v>21</v>
@@ -9131,13 +9131,13 @@
         <v>1200</v>
       </c>
       <c r="D213" s="31">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="E213" s="31">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="F213" s="31">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G213" s="32">
         <v>18618</v>
@@ -9166,13 +9166,13 @@
         <v>100</v>
       </c>
       <c r="D214" s="31">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E214" s="31">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F214" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G214" s="32">
         <v>2368</v>
@@ -9201,13 +9201,13 @@
         <v>47600</v>
       </c>
       <c r="D215" s="31">
-        <v>20420</v>
+        <v>20649</v>
       </c>
       <c r="E215" s="31">
-        <v>16160</v>
+        <v>16251</v>
       </c>
       <c r="F215" s="31">
-        <v>4260</v>
+        <v>4398</v>
       </c>
       <c r="G215" s="32">
         <v>181426</v>
@@ -9236,13 +9236,13 @@
         <v>300</v>
       </c>
       <c r="D216" s="31">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E216" s="31">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F216" s="31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G216" s="32">
         <v>7769</v>
@@ -9271,13 +9271,13 @@
         <v>3800</v>
       </c>
       <c r="D217" s="31">
-        <v>2993</v>
+        <v>3152</v>
       </c>
       <c r="E217" s="31">
-        <v>2319</v>
+        <v>2388</v>
       </c>
       <c r="F217" s="31">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="G217" s="32">
         <v>46042</v>
@@ -9306,13 +9306,13 @@
         <v>300</v>
       </c>
       <c r="D218" s="31">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E218" s="31">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F218" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G218" s="32">
         <v>7614</v>
@@ -9376,10 +9376,10 @@
         <v>200</v>
       </c>
       <c r="D220" s="31">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E220" s="31">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F220" s="31">
         <v>5</v>
@@ -9411,13 +9411,13 @@
         <v>200</v>
       </c>
       <c r="D221" s="31">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E221" s="31">
         <v>113</v>
       </c>
       <c r="F221" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G221" s="32">
         <v>2909</v>
@@ -9446,13 +9446,13 @@
         <v>200</v>
       </c>
       <c r="D222" s="31">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="E222" s="31">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="F222" s="31">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G222" s="32">
         <v>5843</v>
@@ -9481,13 +9481,13 @@
         <v>277725</v>
       </c>
       <c r="D223" s="31">
-        <v>100096</v>
+        <v>102978</v>
       </c>
       <c r="E223" s="31">
-        <v>90645</v>
+        <v>92668</v>
       </c>
       <c r="F223" s="31">
-        <v>9451</v>
+        <v>10310</v>
       </c>
       <c r="G223" s="32">
         <v>1596169</v>
@@ -9516,13 +9516,13 @@
         <v>16875</v>
       </c>
       <c r="D224" s="31">
-        <v>11529</v>
+        <v>11809</v>
       </c>
       <c r="E224" s="31">
-        <v>8517</v>
+        <v>8599</v>
       </c>
       <c r="F224" s="31">
-        <v>3012</v>
+        <v>3210</v>
       </c>
       <c r="G224" s="32">
         <v>108531</v>
@@ -9586,13 +9586,13 @@
         <v>2375</v>
       </c>
       <c r="D226" s="31">
-        <v>965</v>
+        <v>1013</v>
       </c>
       <c r="E226" s="31">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="F226" s="31">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G226" s="32">
         <v>9564</v>
@@ -9656,13 +9656,13 @@
         <v>2700</v>
       </c>
       <c r="D228" s="31">
-        <v>1157</v>
+        <v>1340</v>
       </c>
       <c r="E228" s="31">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="F228" s="31">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="G228" s="32">
         <v>25312</v>
@@ -9691,13 +9691,13 @@
         <v>16950</v>
       </c>
       <c r="D229" s="31">
-        <v>10831</v>
+        <v>10872</v>
       </c>
       <c r="E229" s="31">
-        <v>8365</v>
+        <v>8372</v>
       </c>
       <c r="F229" s="31">
-        <v>2466</v>
+        <v>2500</v>
       </c>
       <c r="G229" s="32">
         <v>93428</v>
@@ -9726,13 +9726,13 @@
         <v>150550</v>
       </c>
       <c r="D230" s="31">
-        <v>78240</v>
+        <v>81442</v>
       </c>
       <c r="E230" s="31">
-        <v>65050</v>
+        <v>66819</v>
       </c>
       <c r="F230" s="31">
-        <v>13190</v>
+        <v>14623</v>
       </c>
       <c r="G230" s="32">
         <v>1016090</v>
@@ -9761,13 +9761,13 @@
         <v>1775</v>
       </c>
       <c r="D231" s="31">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E231" s="31">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F231" s="31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G231" s="32">
         <v>12118</v>
@@ -9796,13 +9796,13 @@
         <v>1200</v>
       </c>
       <c r="D232" s="31">
-        <v>1041</v>
+        <v>1127</v>
       </c>
       <c r="E232" s="31">
-        <v>1030</v>
+        <v>1115</v>
       </c>
       <c r="F232" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G232" s="32">
         <v>18704</v>
@@ -9831,13 +9831,13 @@
         <v>600</v>
       </c>
       <c r="D233" s="31">
-        <v>1318</v>
+        <v>1342</v>
       </c>
       <c r="E233" s="31">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="F233" s="31">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G233" s="32">
         <v>33211</v>
@@ -9866,13 +9866,13 @@
         <v>400</v>
       </c>
       <c r="D234" s="31">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E234" s="31">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F234" s="31">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G234" s="32">
         <v>2790</v>
@@ -9901,13 +9901,13 @@
         <v>3750</v>
       </c>
       <c r="D235" s="31">
-        <v>2436</v>
+        <v>2628</v>
       </c>
       <c r="E235" s="31">
-        <v>2088</v>
+        <v>2231</v>
       </c>
       <c r="F235" s="31">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="G235" s="32">
         <v>20809</v>
@@ -9936,13 +9936,13 @@
         <v>4050</v>
       </c>
       <c r="D236" s="31">
-        <v>2618</v>
+        <v>2911</v>
       </c>
       <c r="E236" s="31">
-        <v>2408</v>
+        <v>2491</v>
       </c>
       <c r="F236" s="31">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="G236" s="32">
         <v>38039</v>
@@ -9971,13 +9971,13 @@
         <v>2000</v>
       </c>
       <c r="D237" s="31">
-        <v>2649</v>
+        <v>2754</v>
       </c>
       <c r="E237" s="31">
-        <v>2264</v>
+        <v>2310</v>
       </c>
       <c r="F237" s="31">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="G237" s="32">
         <v>45144</v>
@@ -10006,13 +10006,13 @@
         <v>9175</v>
       </c>
       <c r="D238" s="31">
-        <v>6117</v>
+        <v>6192</v>
       </c>
       <c r="E238" s="31">
-        <v>4837</v>
+        <v>4895</v>
       </c>
       <c r="F238" s="31">
-        <v>1280</v>
+        <v>1297</v>
       </c>
       <c r="G238" s="32">
         <v>72004</v>
@@ -10041,13 +10041,13 @@
         <v>4000</v>
       </c>
       <c r="D239" s="31">
-        <v>2327</v>
+        <v>2406</v>
       </c>
       <c r="E239" s="31">
-        <v>2233</v>
+        <v>2277</v>
       </c>
       <c r="F239" s="31">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G239" s="32">
         <v>64302</v>
@@ -10076,13 +10076,13 @@
         <v>1700</v>
       </c>
       <c r="D240" s="31">
-        <v>1168</v>
+        <v>1274</v>
       </c>
       <c r="E240" s="31">
-        <v>1063</v>
+        <v>1143</v>
       </c>
       <c r="F240" s="31">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="G240" s="32">
         <v>44163</v>
@@ -10111,13 +10111,13 @@
         <v>400</v>
       </c>
       <c r="D241" s="31">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="E241" s="31">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F241" s="31">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="G241" s="32">
         <v>8544</v>
@@ -10146,13 +10146,13 @@
         <v>6200</v>
       </c>
       <c r="D242" s="31">
-        <v>1585</v>
+        <v>1625</v>
       </c>
       <c r="E242" s="31">
-        <v>1488</v>
+        <v>1522</v>
       </c>
       <c r="F242" s="31">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G242" s="32">
         <v>28737</v>
@@ -10181,13 +10181,13 @@
         <v>33500</v>
       </c>
       <c r="D243" s="31">
-        <v>14486</v>
+        <v>15456</v>
       </c>
       <c r="E243" s="31">
-        <v>12731</v>
+        <v>13235</v>
       </c>
       <c r="F243" s="31">
-        <v>1755</v>
+        <v>2221</v>
       </c>
       <c r="G243" s="32">
         <v>205887</v>
@@ -10216,13 +10216,13 @@
         <v>2100</v>
       </c>
       <c r="D244" s="31">
-        <v>1233</v>
+        <v>1273</v>
       </c>
       <c r="E244" s="31">
-        <v>1148</v>
+        <v>1172</v>
       </c>
       <c r="F244" s="31">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G244" s="32">
         <v>31964</v>
@@ -10251,10 +10251,10 @@
         <v>400</v>
       </c>
       <c r="D245" s="31">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="E245" s="31">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F245" s="31">
         <v>3</v>
@@ -10286,13 +10286,13 @@
         <v>21600</v>
       </c>
       <c r="D246" s="31">
-        <v>11512</v>
+        <v>11909</v>
       </c>
       <c r="E246" s="31">
-        <v>9724</v>
+        <v>9993</v>
       </c>
       <c r="F246" s="31">
-        <v>1788</v>
+        <v>1916</v>
       </c>
       <c r="G246" s="32">
         <v>106550</v>
@@ -10321,13 +10321,13 @@
         <v>4700</v>
       </c>
       <c r="D247" s="31">
-        <v>1661</v>
+        <v>1718</v>
       </c>
       <c r="E247" s="31">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="F247" s="31">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="G247" s="32">
         <v>9933</v>
@@ -10356,13 +10356,13 @@
         <v>500</v>
       </c>
       <c r="D248" s="31">
-        <v>1409</v>
+        <v>1446</v>
       </c>
       <c r="E248" s="31">
-        <v>1319</v>
+        <v>1348</v>
       </c>
       <c r="F248" s="31">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G248" s="32">
         <v>16823</v>
@@ -10391,13 +10391,13 @@
         <v>44250</v>
       </c>
       <c r="D249" s="31">
-        <v>31620</v>
+        <v>33005</v>
       </c>
       <c r="E249" s="31">
-        <v>26632</v>
+        <v>27209</v>
       </c>
       <c r="F249" s="31">
-        <v>4988</v>
+        <v>5796</v>
       </c>
       <c r="G249" s="32">
         <v>457170</v>
@@ -10426,13 +10426,13 @@
         <v>3400</v>
       </c>
       <c r="D250" s="31">
-        <v>2999</v>
+        <v>3136</v>
       </c>
       <c r="E250" s="31">
-        <v>2454</v>
+        <v>2481</v>
       </c>
       <c r="F250" s="31">
-        <v>545</v>
+        <v>655</v>
       </c>
       <c r="G250" s="32">
         <v>42030</v>
@@ -10461,13 +10461,13 @@
         <v>200</v>
       </c>
       <c r="D251" s="31">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E251" s="31">
         <v>254</v>
       </c>
       <c r="F251" s="31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G251" s="32">
         <v>5798</v>
@@ -10496,13 +10496,13 @@
         <v>5550</v>
       </c>
       <c r="D252" s="31">
-        <v>4260</v>
+        <v>4296</v>
       </c>
       <c r="E252" s="31">
-        <v>3358</v>
+        <v>3370</v>
       </c>
       <c r="F252" s="31">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="G252" s="32">
         <v>55570</v>
@@ -10531,13 +10531,13 @@
         <v>1500</v>
       </c>
       <c r="D253" s="31">
-        <v>2290</v>
+        <v>2342</v>
       </c>
       <c r="E253" s="31">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="F253" s="31">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="G253" s="32">
         <v>37205</v>
@@ -10566,13 +10566,13 @@
         <v>600</v>
       </c>
       <c r="D254" s="31">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="E254" s="31">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F254" s="31">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="G254" s="32">
         <v>6336</v>
@@ -10601,13 +10601,13 @@
         <v>1900</v>
       </c>
       <c r="D255" s="31">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="E255" s="31">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F255" s="31">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="G255" s="32">
         <v>15028</v>
@@ -10636,13 +10636,13 @@
         <v>700</v>
       </c>
       <c r="D256" s="31">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="E256" s="31">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F256" s="31">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G256" s="32">
         <v>10088</v>
@@ -10671,13 +10671,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="31">
-        <v>570</v>
+        <v>718</v>
       </c>
       <c r="E257" s="31">
-        <v>504</v>
+        <v>637</v>
       </c>
       <c r="F257" s="31">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G257" s="32">
         <v>8768</v>
@@ -10706,13 +10706,13 @@
         <v>9775</v>
       </c>
       <c r="D258" s="31">
-        <v>187858</v>
+        <v>187901</v>
       </c>
       <c r="E258" s="31">
-        <v>161463</v>
+        <v>161131</v>
       </c>
       <c r="F258" s="31">
-        <v>26395</v>
+        <v>26770</v>
       </c>
       <c r="G258" s="32"/>
       <c r="H258" s="32"/>
@@ -10755,7 +10755,7 @@
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>281</v>
       </c>
@@ -10786,13 +10786,13 @@
         <v>301</v>
       </c>
       <c r="D2" s="31">
-        <v>33599</v>
+        <v>33903</v>
       </c>
       <c r="E2" s="31">
-        <v>23650</v>
+        <v>23715</v>
       </c>
       <c r="F2" s="31">
-        <v>9949</v>
+        <v>10188</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10806,13 +10806,13 @@
         <v>302</v>
       </c>
       <c r="D3" s="31">
-        <v>21719</v>
+        <v>21987</v>
       </c>
       <c r="E3" s="31">
-        <v>16350</v>
+        <v>16470</v>
       </c>
       <c r="F3" s="31">
-        <v>5369</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10826,13 +10826,13 @@
         <v>300</v>
       </c>
       <c r="D4" s="31">
-        <v>59853</v>
+        <v>60578</v>
       </c>
       <c r="E4" s="31">
-        <v>43671</v>
+        <v>44037</v>
       </c>
       <c r="F4" s="31">
-        <v>16182</v>
+        <v>16541</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10846,13 +10846,13 @@
         <v>304</v>
       </c>
       <c r="D5" s="31">
-        <v>125009</v>
+        <v>127505</v>
       </c>
       <c r="E5" s="31">
-        <v>90819</v>
+        <v>91357</v>
       </c>
       <c r="F5" s="31">
-        <v>34190</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10866,13 +10866,13 @@
         <v>303</v>
       </c>
       <c r="D6" s="31">
-        <v>37969</v>
+        <v>38510</v>
       </c>
       <c r="E6" s="31">
-        <v>31143</v>
+        <v>31291</v>
       </c>
       <c r="F6" s="31">
-        <v>6826</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10886,13 +10886,13 @@
         <v>289</v>
       </c>
       <c r="D7" s="31">
-        <v>207282</v>
+        <v>214808</v>
       </c>
       <c r="E7" s="31">
-        <v>162907</v>
+        <v>166064</v>
       </c>
       <c r="F7" s="31">
-        <v>44375</v>
+        <v>48744</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -10907,13 +10907,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="31">
-        <v>14408</v>
+        <v>14605</v>
       </c>
       <c r="E8" s="31">
-        <v>10805</v>
+        <v>10917</v>
       </c>
       <c r="F8" s="31">
-        <v>3603</v>
+        <v>3688</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -10928,13 +10928,13 @@
         <v>302</v>
       </c>
       <c r="D9" s="31">
-        <v>16375</v>
+        <v>16641</v>
       </c>
       <c r="E9" s="31">
-        <v>12658</v>
+        <v>12825</v>
       </c>
       <c r="F9" s="31">
-        <v>3717</v>
+        <v>3816</v>
       </c>
       <c r="O9" s="30"/>
     </row>
@@ -10949,13 +10949,13 @@
         <v>300</v>
       </c>
       <c r="D10" s="31">
-        <v>25409</v>
+        <v>25903</v>
       </c>
       <c r="E10" s="31">
-        <v>20073</v>
+        <v>20432</v>
       </c>
       <c r="F10" s="31">
-        <v>5336</v>
+        <v>5471</v>
       </c>
       <c r="O10" s="30"/>
     </row>
@@ -10970,13 +10970,13 @@
         <v>304</v>
       </c>
       <c r="D11" s="31">
-        <v>72833</v>
+        <v>74586</v>
       </c>
       <c r="E11" s="31">
-        <v>57212</v>
+        <v>57905</v>
       </c>
       <c r="F11" s="31">
-        <v>15621</v>
+        <v>16681</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -10991,13 +10991,13 @@
         <v>303</v>
       </c>
       <c r="D12" s="31">
-        <v>20989</v>
+        <v>21256</v>
       </c>
       <c r="E12" s="31">
-        <v>18059</v>
+        <v>18160</v>
       </c>
       <c r="F12" s="31">
-        <v>2930</v>
+        <v>3096</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -11012,13 +11012,13 @@
         <v>289</v>
       </c>
       <c r="D13" s="31">
-        <v>121286</v>
+        <v>126586</v>
       </c>
       <c r="E13" s="31">
-        <v>101572</v>
+        <v>104542</v>
       </c>
       <c r="F13" s="31">
-        <v>19714</v>
+        <v>22044</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -11033,13 +11033,13 @@
         <v>301</v>
       </c>
       <c r="D14" s="31">
-        <v>10494</v>
+        <v>10663</v>
       </c>
       <c r="E14" s="31">
-        <v>9695</v>
+        <v>9822</v>
       </c>
       <c r="F14" s="31">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11054,13 +11054,13 @@
         <v>302</v>
       </c>
       <c r="D15" s="31">
-        <v>10011</v>
+        <v>10297</v>
       </c>
       <c r="E15" s="31">
-        <v>9411</v>
+        <v>9674</v>
       </c>
       <c r="F15" s="31">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11075,13 +11075,13 @@
         <v>300</v>
       </c>
       <c r="D16" s="31">
-        <v>14687</v>
+        <v>15105</v>
       </c>
       <c r="E16" s="31">
-        <v>13559</v>
+        <v>13937</v>
       </c>
       <c r="F16" s="31">
-        <v>1128</v>
+        <v>1168</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11096,13 +11096,13 @@
         <v>304</v>
       </c>
       <c r="D17" s="31">
-        <v>86786</v>
+        <v>89343</v>
       </c>
       <c r="E17" s="31">
-        <v>82337</v>
+        <v>84243</v>
       </c>
       <c r="F17" s="31">
-        <v>4449</v>
+        <v>5100</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11117,13 +11117,13 @@
         <v>303</v>
       </c>
       <c r="D18" s="31">
-        <v>20514</v>
+        <v>20749</v>
       </c>
       <c r="E18" s="31">
-        <v>18902</v>
+        <v>19063</v>
       </c>
       <c r="F18" s="31">
-        <v>1612</v>
+        <v>1686</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11138,13 +11138,13 @@
         <v>289</v>
       </c>
       <c r="D19" s="31">
-        <v>117733</v>
+        <v>123416</v>
       </c>
       <c r="E19" s="31">
-        <v>110527</v>
+        <v>114906</v>
       </c>
       <c r="F19" s="31">
-        <v>7206</v>
+        <v>8510</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11159,13 +11159,13 @@
         <v>301</v>
       </c>
       <c r="D20" s="31">
-        <v>2120</v>
+        <v>2152</v>
       </c>
       <c r="E20" s="31">
-        <v>2039</v>
+        <v>2063</v>
       </c>
       <c r="F20" s="31">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11180,13 +11180,13 @@
         <v>302</v>
       </c>
       <c r="D21" s="31">
-        <v>2076</v>
+        <v>2163</v>
       </c>
       <c r="E21" s="31">
-        <v>2051</v>
+        <v>2135</v>
       </c>
       <c r="F21" s="31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11201,13 +11201,13 @@
         <v>300</v>
       </c>
       <c r="D22" s="31">
-        <v>3040</v>
+        <v>3137</v>
       </c>
       <c r="E22" s="31">
-        <v>2920</v>
+        <v>3009</v>
       </c>
       <c r="F22" s="31">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11222,13 +11222,13 @@
         <v>304</v>
       </c>
       <c r="D23" s="31">
-        <v>25039</v>
+        <v>25782</v>
       </c>
       <c r="E23" s="31">
-        <v>24343</v>
+        <v>24930</v>
       </c>
       <c r="F23" s="31">
-        <v>696</v>
+        <v>852</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11243,13 +11243,13 @@
         <v>303</v>
       </c>
       <c r="D24" s="31">
-        <v>22460</v>
+        <v>22524</v>
       </c>
       <c r="E24" s="31">
-        <v>19951</v>
+        <v>19987</v>
       </c>
       <c r="F24" s="31">
-        <v>2509</v>
+        <v>2537</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11264,13 +11264,13 @@
         <v>289</v>
       </c>
       <c r="D25" s="31">
-        <v>43301</v>
+        <v>45047</v>
       </c>
       <c r="E25" s="31">
-        <v>40717</v>
+        <v>42064</v>
       </c>
       <c r="F25" s="31">
-        <v>2584</v>
+        <v>2983</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11348,10 +11348,10 @@
         <v>304</v>
       </c>
       <c r="D29" s="31">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E29" s="31">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" s="31">
         <v>4</v>
@@ -11390,13 +11390,13 @@
         <v>289</v>
       </c>
       <c r="D31" s="31">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="E31" s="31">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="F31" s="31">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11411,13 +11411,13 @@
         <v>301</v>
       </c>
       <c r="D32" s="31">
-        <v>21870</v>
+        <v>22089</v>
       </c>
       <c r="E32" s="31">
-        <v>15517</v>
+        <v>15579</v>
       </c>
       <c r="F32" s="31">
-        <v>6353</v>
+        <v>6510</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11432,13 +11432,13 @@
         <v>302</v>
       </c>
       <c r="D33" s="31">
-        <v>9276</v>
+        <v>9397</v>
       </c>
       <c r="E33" s="31">
-        <v>7091</v>
+        <v>7157</v>
       </c>
       <c r="F33" s="31">
-        <v>2185</v>
+        <v>2240</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11453,13 +11453,13 @@
         <v>300</v>
       </c>
       <c r="D34" s="31">
-        <v>30515</v>
+        <v>30876</v>
       </c>
       <c r="E34" s="31">
-        <v>22631</v>
+        <v>22815</v>
       </c>
       <c r="F34" s="31">
-        <v>7884</v>
+        <v>8061</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11474,13 +11474,13 @@
         <v>304</v>
       </c>
       <c r="D35" s="31">
-        <v>62232</v>
+        <v>63524</v>
       </c>
       <c r="E35" s="31">
-        <v>46575</v>
+        <v>46933</v>
       </c>
       <c r="F35" s="31">
-        <v>15657</v>
+        <v>16591</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11495,13 +11495,13 @@
         <v>303</v>
       </c>
       <c r="D36" s="31">
-        <v>18160</v>
+        <v>18441</v>
       </c>
       <c r="E36" s="31">
-        <v>14726</v>
+        <v>14819</v>
       </c>
       <c r="F36" s="31">
-        <v>3434</v>
+        <v>3622</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11516,13 +11516,13 @@
         <v>289</v>
       </c>
       <c r="D37" s="31">
-        <v>121655</v>
+        <v>126679</v>
       </c>
       <c r="E37" s="31">
-        <v>96818</v>
+        <v>99133</v>
       </c>
       <c r="F37" s="31">
-        <v>24837</v>
+        <v>27546</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11537,13 +11537,13 @@
         <v>301</v>
       </c>
       <c r="D38" s="31">
-        <v>10046</v>
+        <v>10181</v>
       </c>
       <c r="E38" s="31">
-        <v>7761</v>
+        <v>7856</v>
       </c>
       <c r="F38" s="31">
-        <v>2285</v>
+        <v>2325</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11558,13 +11558,13 @@
         <v>302</v>
       </c>
       <c r="D39" s="31">
-        <v>8278</v>
+        <v>8429</v>
       </c>
       <c r="E39" s="31">
-        <v>6725</v>
+        <v>6831</v>
       </c>
       <c r="F39" s="31">
-        <v>1553</v>
+        <v>1598</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11579,13 +11579,13 @@
         <v>300</v>
       </c>
       <c r="D40" s="31">
-        <v>16049</v>
+        <v>16357</v>
       </c>
       <c r="E40" s="31">
-        <v>12955</v>
+        <v>13184</v>
       </c>
       <c r="F40" s="31">
-        <v>3094</v>
+        <v>3173</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11600,13 +11600,13 @@
         <v>304</v>
       </c>
       <c r="D41" s="31">
-        <v>45331</v>
+        <v>46390</v>
       </c>
       <c r="E41" s="31">
-        <v>36786</v>
+        <v>37332</v>
       </c>
       <c r="F41" s="31">
-        <v>8545</v>
+        <v>9058</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11621,13 +11621,13 @@
         <v>303</v>
       </c>
       <c r="D42" s="31">
-        <v>11389</v>
+        <v>11557</v>
       </c>
       <c r="E42" s="31">
-        <v>9767</v>
+        <v>9846</v>
       </c>
       <c r="F42" s="31">
-        <v>1622</v>
+        <v>1711</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11642,13 +11642,13 @@
         <v>289</v>
       </c>
       <c r="D43" s="31">
-        <v>79762</v>
+        <v>83457</v>
       </c>
       <c r="E43" s="31">
-        <v>67653</v>
+        <v>69910</v>
       </c>
       <c r="F43" s="31">
-        <v>12109</v>
+        <v>13547</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11663,13 +11663,13 @@
         <v>301</v>
       </c>
       <c r="D44" s="31">
-        <v>9413</v>
+        <v>9559</v>
       </c>
       <c r="E44" s="31">
-        <v>8736</v>
+        <v>8851</v>
       </c>
       <c r="F44" s="31">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11684,13 +11684,13 @@
         <v>302</v>
       </c>
       <c r="D45" s="31">
-        <v>6487</v>
+        <v>6691</v>
       </c>
       <c r="E45" s="31">
-        <v>6157</v>
+        <v>6344</v>
       </c>
       <c r="F45" s="31">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11704,13 +11704,13 @@
         <v>300</v>
       </c>
       <c r="D46" s="31">
-        <v>11305</v>
+        <v>11632</v>
       </c>
       <c r="E46" s="31">
-        <v>10423</v>
+        <v>10711</v>
       </c>
       <c r="F46" s="31">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11725,13 +11725,13 @@
         <v>304</v>
       </c>
       <c r="D47" s="31">
-        <v>75065</v>
+        <v>77177</v>
       </c>
       <c r="E47" s="31">
-        <v>70916</v>
+        <v>72482</v>
       </c>
       <c r="F47" s="31">
-        <v>4149</v>
+        <v>4695</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11746,13 +11746,13 @@
         <v>303</v>
       </c>
       <c r="D48" s="31">
-        <v>14700</v>
+        <v>14907</v>
       </c>
       <c r="E48" s="31">
-        <v>13581</v>
+        <v>13733</v>
       </c>
       <c r="F48" s="31">
-        <v>1119</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11766,13 +11766,13 @@
         <v>289</v>
       </c>
       <c r="D49" s="31">
-        <v>98026</v>
+        <v>102689</v>
       </c>
       <c r="E49" s="31">
-        <v>91755</v>
+        <v>95378</v>
       </c>
       <c r="F49" s="31">
-        <v>6271</v>
+        <v>7311</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11787,13 +11787,13 @@
         <v>301</v>
       </c>
       <c r="D50" s="31">
-        <v>1921</v>
+        <v>1952</v>
       </c>
       <c r="E50" s="31">
-        <v>1824</v>
+        <v>1847</v>
       </c>
       <c r="F50" s="31">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11808,13 +11808,13 @@
         <v>302</v>
       </c>
       <c r="D51" s="31">
-        <v>1139</v>
+        <v>1170</v>
       </c>
       <c r="E51" s="31">
-        <v>1117</v>
+        <v>1147</v>
       </c>
       <c r="F51" s="31">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -11828,13 +11828,13 @@
         <v>300</v>
       </c>
       <c r="D52" s="31">
-        <v>2042</v>
+        <v>2098</v>
       </c>
       <c r="E52" s="31">
-        <v>1941</v>
+        <v>1992</v>
       </c>
       <c r="F52" s="31">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11849,13 +11849,13 @@
         <v>304</v>
       </c>
       <c r="D53" s="31">
-        <v>20988</v>
+        <v>21500</v>
       </c>
       <c r="E53" s="31">
-        <v>20389</v>
+        <v>20765</v>
       </c>
       <c r="F53" s="31">
-        <v>599</v>
+        <v>735</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11870,13 +11870,13 @@
         <v>303</v>
       </c>
       <c r="D54" s="31">
-        <v>9104</v>
+        <v>9138</v>
       </c>
       <c r="E54" s="31">
-        <v>8196</v>
+        <v>8222</v>
       </c>
       <c r="F54" s="31">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11891,13 +11891,13 @@
         <v>289</v>
       </c>
       <c r="D55" s="31">
-        <v>28525</v>
+        <v>29713</v>
       </c>
       <c r="E55" s="31">
-        <v>26891</v>
+        <v>27777</v>
       </c>
       <c r="F55" s="31">
-        <v>1634</v>
+        <v>1936</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -12016,13 +12016,13 @@
         <v>289</v>
       </c>
       <c r="D61" s="31">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="E61" s="31">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F61" s="31">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12040,10 +12040,10 @@
         <v>650</v>
       </c>
       <c r="E62" s="31">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F62" s="31">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O62" s="30"/>
     </row>
@@ -12061,10 +12061,10 @@
         <v>350</v>
       </c>
       <c r="E63" s="31">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F63" s="31">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12078,13 +12078,13 @@
         <v>300</v>
       </c>
       <c r="D64" s="31">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="E64" s="31">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F64" s="31">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12099,13 +12099,13 @@
         <v>304</v>
       </c>
       <c r="D65" s="31">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="E65" s="31">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="F65" s="31">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12120,13 +12120,13 @@
         <v>303</v>
       </c>
       <c r="D66" s="31">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="E66" s="31">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="F66" s="31">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12140,13 +12140,13 @@
         <v>289</v>
       </c>
       <c r="D67" s="31">
-        <v>2984</v>
+        <v>3049</v>
       </c>
       <c r="E67" s="31">
-        <v>2825</v>
+        <v>2842</v>
       </c>
       <c r="F67" s="31">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12161,10 +12161,10 @@
         <v>301</v>
       </c>
       <c r="D68" s="31">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E68" s="31">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F68" s="31">
         <v>42</v>
@@ -12202,13 +12202,13 @@
         <v>300</v>
       </c>
       <c r="D70" s="31">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E70" s="31">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F70" s="31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O70" s="30"/>
     </row>
@@ -12223,13 +12223,13 @@
         <v>304</v>
       </c>
       <c r="D71" s="31">
-        <v>1650</v>
+        <v>1657</v>
       </c>
       <c r="E71" s="31">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="F71" s="31">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12244,10 +12244,10 @@
         <v>303</v>
       </c>
       <c r="D72" s="31">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E72" s="31">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F72" s="31">
         <v>90</v>
@@ -12264,13 +12264,13 @@
         <v>289</v>
       </c>
       <c r="D73" s="31">
-        <v>3164</v>
+        <v>3198</v>
       </c>
       <c r="E73" s="31">
-        <v>3074</v>
+        <v>3089</v>
       </c>
       <c r="F73" s="31">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12285,10 +12285,10 @@
         <v>301</v>
       </c>
       <c r="D74" s="31">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="E74" s="31">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="F74" s="31">
         <v>16</v>
@@ -12306,10 +12306,10 @@
         <v>302</v>
       </c>
       <c r="D75" s="31">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E75" s="31">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F75" s="31">
         <v>5</v>
@@ -12327,10 +12327,10 @@
         <v>300</v>
       </c>
       <c r="D76" s="31">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E76" s="31">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="F76" s="31">
         <v>7</v>
@@ -12348,13 +12348,13 @@
         <v>304</v>
       </c>
       <c r="D77" s="31">
-        <v>7423</v>
+        <v>7460</v>
       </c>
       <c r="E77" s="31">
-        <v>7336</v>
+        <v>7372</v>
       </c>
       <c r="F77" s="31">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12369,10 +12369,10 @@
         <v>303</v>
       </c>
       <c r="D78" s="31">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="E78" s="31">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="F78" s="31">
         <v>38</v>
@@ -12390,13 +12390,13 @@
         <v>289</v>
       </c>
       <c r="D79" s="31">
-        <v>7219</v>
+        <v>7279</v>
       </c>
       <c r="E79" s="31">
-        <v>7167</v>
+        <v>7211</v>
       </c>
       <c r="F79" s="31">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12410,10 +12410,10 @@
         <v>301</v>
       </c>
       <c r="D80" s="31">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E80" s="31">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F80" s="31">
         <v>2</v>
@@ -12430,10 +12430,10 @@
         <v>302</v>
       </c>
       <c r="D81" s="31">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E81" s="31">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F81" s="31">
         <v>1</v>
@@ -12470,10 +12470,10 @@
         <v>304</v>
       </c>
       <c r="D83" s="31">
+        <v>1331</v>
+      </c>
+      <c r="E83" s="31">
         <v>1320</v>
-      </c>
-      <c r="E83" s="31">
-        <v>1309</v>
       </c>
       <c r="F83" s="31">
         <v>11</v>
@@ -12490,10 +12490,10 @@
         <v>303</v>
       </c>
       <c r="D84" s="31">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E84" s="31">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F84" s="31">
         <v>1</v>
@@ -12510,13 +12510,13 @@
         <v>289</v>
       </c>
       <c r="D85" s="31">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="E85" s="31">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="F85" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -12630,13 +12630,13 @@
         <v>290</v>
       </c>
       <c r="D91" s="31">
-        <v>1868596</v>
+        <v>1923503</v>
       </c>
       <c r="E91" s="31">
-        <v>1571093</v>
+        <v>1603193</v>
       </c>
       <c r="F91" s="31">
-        <v>297503</v>
+        <v>320310</v>
       </c>
     </row>
   </sheetData>
@@ -12646,7 +12646,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12699,7 +12699,7 @@
         <v>44181</v>
       </c>
       <c r="C4" s="30">
-        <v>12815</v>
+        <v>12817</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -12710,7 +12710,7 @@
         <v>44182</v>
       </c>
       <c r="C5" s="30">
-        <v>16030</v>
+        <v>16031</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -12721,7 +12721,7 @@
         <v>44183</v>
       </c>
       <c r="C6" s="30">
-        <v>24520</v>
+        <v>24524</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -12743,7 +12743,7 @@
         <v>44185</v>
       </c>
       <c r="C8" s="30">
-        <v>6373</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -12754,7 +12754,7 @@
         <v>44186</v>
       </c>
       <c r="C9" s="30">
-        <v>18221</v>
+        <v>18219</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -12776,7 +12776,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="30">
-        <v>24300</v>
+        <v>24313</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -12787,7 +12787,7 @@
         <v>44189</v>
       </c>
       <c r="C12" s="30">
-        <v>10240</v>
+        <v>10241</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -12809,7 +12809,7 @@
         <v>44191</v>
       </c>
       <c r="C14" s="30">
-        <v>6576</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -12831,7 +12831,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="30">
-        <v>25112</v>
+        <v>25146</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -12842,7 +12842,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="30">
-        <v>31712</v>
+        <v>31776</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -12853,7 +12853,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="30">
-        <v>35024</v>
+        <v>35062</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -12864,7 +12864,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="30">
-        <v>21462</v>
+        <v>21484</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -12875,7 +12875,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="30">
-        <v>2289</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -12886,7 +12886,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="30">
-        <v>9610</v>
+        <v>9617</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -12908,7 +12908,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="30">
-        <v>23604</v>
+        <v>23623</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -12919,7 +12919,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="30">
-        <v>27588</v>
+        <v>27610</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -12930,7 +12930,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="30">
-        <v>35410</v>
+        <v>35420</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -12941,7 +12941,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="30">
-        <v>40286</v>
+        <v>40298</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -12952,7 +12952,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="30">
-        <v>42974</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12963,7 +12963,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="30">
-        <v>18015</v>
+        <v>18062</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -12985,7 +12985,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="30">
-        <v>27448</v>
+        <v>27715</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -12996,7 +12996,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="30">
-        <v>27548</v>
+        <v>27568</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -13007,7 +13007,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="30">
-        <v>26423</v>
+        <v>26452</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -13018,7 +13018,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="30">
-        <v>20536</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -13029,7 +13029,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="30">
-        <v>21134</v>
+        <v>21221</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -13040,7 +13040,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="30">
-        <v>11175</v>
+        <v>11192</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -13051,7 +13051,7 @@
         <v>44213</v>
       </c>
       <c r="C36" s="30">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -13062,7 +13062,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="30">
-        <v>11543</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -13073,7 +13073,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="30">
-        <v>20013</v>
+        <v>20086</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -13084,7 +13084,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="30">
-        <v>25948</v>
+        <v>26089</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -13095,7 +13095,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="30">
-        <v>23186</v>
+        <v>23489</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -13106,7 +13106,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="30">
-        <v>28161</v>
+        <v>28501</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -13117,7 +13117,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="30">
-        <v>13604</v>
+        <v>13890</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -13128,7 +13128,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="30">
-        <v>2774</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -13139,18 +13139,18 @@
         <v>44221</v>
       </c>
       <c r="C44" s="30">
-        <v>9328</v>
+        <v>14484</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B45" s="36">
-        <v>44179</v>
-      </c>
-      <c r="C45" s="23">
-        <v>139</v>
+        <v>44222</v>
+      </c>
+      <c r="C45" s="30">
+        <v>12046</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -13158,10 +13158,10 @@
         <v>286</v>
       </c>
       <c r="B46" s="36">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C46" s="30">
-        <v>1500</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -13169,10 +13169,10 @@
         <v>286</v>
       </c>
       <c r="B47" s="36">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C47" s="30">
-        <v>4981</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -13180,10 +13180,10 @@
         <v>286</v>
       </c>
       <c r="B48" s="36">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C48" s="30">
-        <v>6663</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -13191,10 +13191,10 @@
         <v>286</v>
       </c>
       <c r="B49" s="36">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C49" s="30">
-        <v>10710</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -13202,10 +13202,10 @@
         <v>286</v>
       </c>
       <c r="B50" s="36">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C50" s="30">
-        <v>4544</v>
+        <v>10714</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -13213,10 +13213,10 @@
         <v>286</v>
       </c>
       <c r="B51" s="36">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C51" s="30">
-        <v>2378</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -13224,10 +13224,10 @@
         <v>286</v>
       </c>
       <c r="B52" s="36">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C52" s="30">
-        <v>7755</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -13235,10 +13235,10 @@
         <v>286</v>
       </c>
       <c r="B53" s="36">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C53" s="30">
-        <v>7265</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -13246,10 +13246,10 @@
         <v>286</v>
       </c>
       <c r="B54" s="36">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C54" s="30">
-        <v>10617</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -13257,10 +13257,10 @@
         <v>286</v>
       </c>
       <c r="B55" s="36">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C55" s="30">
-        <v>4617</v>
+        <v>10628</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -13268,10 +13268,10 @@
         <v>286</v>
       </c>
       <c r="B56" s="36">
-        <v>44190</v>
-      </c>
-      <c r="C56" s="23">
-        <v>663</v>
+        <v>44189</v>
+      </c>
+      <c r="C56" s="30">
+        <v>4620</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -13279,10 +13279,10 @@
         <v>286</v>
       </c>
       <c r="B57" s="36">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C57" s="30">
-        <v>3138</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -13290,10 +13290,10 @@
         <v>286</v>
       </c>
       <c r="B58" s="36">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C58" s="30">
-        <v>2189</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -13301,10 +13301,10 @@
         <v>286</v>
       </c>
       <c r="B59" s="36">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C59" s="30">
-        <v>12682</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -13312,10 +13312,10 @@
         <v>286</v>
       </c>
       <c r="B60" s="36">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C60" s="30">
-        <v>16693</v>
+        <v>12689</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -13323,10 +13323,10 @@
         <v>286</v>
       </c>
       <c r="B61" s="36">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C61" s="30">
-        <v>19527</v>
+        <v>16742</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -13334,10 +13334,10 @@
         <v>286</v>
       </c>
       <c r="B62" s="36">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C62" s="30">
-        <v>12480</v>
+        <v>19544</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -13345,10 +13345,10 @@
         <v>286</v>
       </c>
       <c r="B63" s="36">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C63" s="30">
-        <v>1151</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -13356,10 +13356,10 @@
         <v>286</v>
       </c>
       <c r="B64" s="36">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C64" s="30">
-        <v>5512</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -13367,10 +13367,10 @@
         <v>286</v>
       </c>
       <c r="B65" s="36">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C65" s="30">
-        <v>3240</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -13378,10 +13378,10 @@
         <v>286</v>
       </c>
       <c r="B66" s="36">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C66" s="30">
-        <v>14601</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -13389,10 +13389,10 @@
         <v>286</v>
       </c>
       <c r="B67" s="36">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C67" s="30">
-        <v>16320</v>
+        <v>14619</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -13400,10 +13400,10 @@
         <v>286</v>
       </c>
       <c r="B68" s="36">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C68" s="30">
-        <v>19706</v>
+        <v>16343</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -13411,10 +13411,10 @@
         <v>286</v>
       </c>
       <c r="B69" s="36">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C69" s="30">
-        <v>22551</v>
+        <v>19709</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -13422,10 +13422,10 @@
         <v>286</v>
       </c>
       <c r="B70" s="36">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C70" s="30">
-        <v>24012</v>
+        <v>22559</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -13433,10 +13433,10 @@
         <v>286</v>
       </c>
       <c r="B71" s="36">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C71" s="30">
-        <v>10417</v>
+        <v>24020</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -13444,10 +13444,10 @@
         <v>286</v>
       </c>
       <c r="B72" s="36">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C72" s="30">
-        <v>4342</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -13455,10 +13455,10 @@
         <v>286</v>
       </c>
       <c r="B73" s="36">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C73" s="30">
-        <v>17226</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -13466,10 +13466,10 @@
         <v>286</v>
       </c>
       <c r="B74" s="36">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C74" s="30">
-        <v>18379</v>
+        <v>17424</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -13477,10 +13477,10 @@
         <v>286</v>
       </c>
       <c r="B75" s="36">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C75" s="30">
-        <v>18953</v>
+        <v>18383</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -13488,10 +13488,10 @@
         <v>286</v>
       </c>
       <c r="B76" s="36">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C76" s="30">
-        <v>16108</v>
+        <v>18965</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -13499,10 +13499,10 @@
         <v>286</v>
       </c>
       <c r="B77" s="36">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C77" s="30">
-        <v>15527</v>
+        <v>16160</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -13510,10 +13510,10 @@
         <v>286</v>
       </c>
       <c r="B78" s="36">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C78" s="30">
-        <v>9390</v>
+        <v>15602</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -13521,10 +13521,10 @@
         <v>286</v>
       </c>
       <c r="B79" s="36">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C79" s="30">
-        <v>1641</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -13532,10 +13532,10 @@
         <v>286</v>
       </c>
       <c r="B80" s="36">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C80" s="30">
-        <v>8287</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -13543,10 +13543,10 @@
         <v>286</v>
       </c>
       <c r="B81" s="36">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C81" s="30">
-        <v>15519</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -13554,10 +13554,10 @@
         <v>286</v>
       </c>
       <c r="B82" s="36">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C82" s="30">
-        <v>19521</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -13565,10 +13565,10 @@
         <v>286</v>
       </c>
       <c r="B83" s="36">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C83" s="30">
-        <v>18658</v>
+        <v>19748</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -13576,10 +13576,10 @@
         <v>286</v>
       </c>
       <c r="B84" s="36">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C84" s="30">
-        <v>19924</v>
+        <v>18930</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -13587,10 +13587,10 @@
         <v>286</v>
       </c>
       <c r="B85" s="36">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C85" s="30">
-        <v>10133</v>
+        <v>20232</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -13598,10 +13598,10 @@
         <v>286</v>
       </c>
       <c r="B86" s="36">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C86" s="30">
-        <v>1970</v>
+        <v>10382</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -13609,32 +13609,32 @@
         <v>286</v>
       </c>
       <c r="B87" s="36">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C87" s="30">
-        <v>7340</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B88" s="36">
-        <v>44179</v>
-      </c>
-      <c r="C88" s="23">
-        <v>24</v>
+        <v>44221</v>
+      </c>
+      <c r="C88" s="30">
+        <v>10394</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C89" s="23">
-        <v>307</v>
+        <v>44222</v>
+      </c>
+      <c r="C89" s="30">
+        <v>9010</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -13642,10 +13642,10 @@
         <v>287</v>
       </c>
       <c r="B90" s="36">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C90" s="30">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -13653,10 +13653,10 @@
         <v>287</v>
       </c>
       <c r="B91" s="36">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C91" s="30">
-        <v>1436</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -13664,10 +13664,10 @@
         <v>287</v>
       </c>
       <c r="B92" s="36">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C92" s="30">
-        <v>2001</v>
+        <v>955</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -13675,10 +13675,10 @@
         <v>287</v>
       </c>
       <c r="B93" s="36">
-        <v>44184</v>
-      </c>
-      <c r="C93" s="23">
-        <v>983</v>
+        <v>44182</v>
+      </c>
+      <c r="C93" s="30">
+        <v>1436</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -13686,10 +13686,10 @@
         <v>287</v>
       </c>
       <c r="B94" s="36">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C94" s="30">
-        <v>476</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -13697,10 +13697,10 @@
         <v>287</v>
       </c>
       <c r="B95" s="36">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C95" s="30">
-        <v>1470</v>
+        <v>983</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -13708,10 +13708,10 @@
         <v>287</v>
       </c>
       <c r="B96" s="36">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C96" s="30">
-        <v>2046</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -13719,10 +13719,10 @@
         <v>287</v>
       </c>
       <c r="B97" s="36">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C97" s="30">
-        <v>2856</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -13730,10 +13730,10 @@
         <v>287</v>
       </c>
       <c r="B98" s="36">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C98" s="30">
-        <v>1876</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -13741,10 +13741,10 @@
         <v>287</v>
       </c>
       <c r="B99" s="36">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C99" s="30">
-        <v>323</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -13752,10 +13752,10 @@
         <v>287</v>
       </c>
       <c r="B100" s="36">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C100" s="30">
-        <v>1703</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -13763,10 +13763,10 @@
         <v>287</v>
       </c>
       <c r="B101" s="36">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C101" s="30">
-        <v>1110</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -13774,10 +13774,10 @@
         <v>287</v>
       </c>
       <c r="B102" s="36">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C102" s="30">
-        <v>6474</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -13785,10 +13785,10 @@
         <v>287</v>
       </c>
       <c r="B103" s="36">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C103" s="30">
-        <v>10513</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -13796,10 +13796,10 @@
         <v>287</v>
       </c>
       <c r="B104" s="36">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C104" s="30">
-        <v>16250</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -13807,10 +13807,10 @@
         <v>287</v>
       </c>
       <c r="B105" s="36">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C105" s="30">
-        <v>10597</v>
+        <v>10552</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -13818,10 +13818,10 @@
         <v>287</v>
       </c>
       <c r="B106" s="36">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C106" s="30">
-        <v>1273</v>
+        <v>16271</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -13829,10 +13829,10 @@
         <v>287</v>
       </c>
       <c r="B107" s="36">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C107" s="30">
-        <v>5941</v>
+        <v>10611</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -13840,10 +13840,10 @@
         <v>287</v>
       </c>
       <c r="B108" s="36">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C108" s="30">
-        <v>3416</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -13851,10 +13851,10 @@
         <v>287</v>
       </c>
       <c r="B109" s="36">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C109" s="30">
-        <v>15915</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -13862,10 +13862,10 @@
         <v>287</v>
       </c>
       <c r="B110" s="36">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C110" s="30">
-        <v>17939</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -13873,10 +13873,10 @@
         <v>287</v>
       </c>
       <c r="B111" s="36">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C111" s="30">
-        <v>19870</v>
+        <v>15925</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -13884,10 +13884,10 @@
         <v>287</v>
       </c>
       <c r="B112" s="36">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C112" s="30">
-        <v>23937</v>
+        <v>17955</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -13895,10 +13895,10 @@
         <v>287</v>
       </c>
       <c r="B113" s="36">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C113" s="30">
-        <v>24075</v>
+        <v>19874</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -13906,10 +13906,10 @@
         <v>287</v>
       </c>
       <c r="B114" s="36">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C114" s="30">
-        <v>13903</v>
+        <v>23950</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -13917,10 +13917,10 @@
         <v>287</v>
       </c>
       <c r="B115" s="36">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C115" s="30">
-        <v>4368</v>
+        <v>24091</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -13928,10 +13928,10 @@
         <v>287</v>
       </c>
       <c r="B116" s="36">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C116" s="30">
-        <v>22562</v>
+        <v>13906</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -13939,10 +13939,10 @@
         <v>287</v>
       </c>
       <c r="B117" s="36">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C117" s="30">
-        <v>26139</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -13950,10 +13950,10 @@
         <v>287</v>
       </c>
       <c r="B118" s="36">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C118" s="30">
-        <v>28089</v>
+        <v>22716</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -13961,10 +13961,10 @@
         <v>287</v>
       </c>
       <c r="B119" s="36">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C119" s="30">
-        <v>31638</v>
+        <v>26148</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -13972,10 +13972,10 @@
         <v>287</v>
       </c>
       <c r="B120" s="36">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C120" s="30">
-        <v>26541</v>
+        <v>28133</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -13983,10 +13983,10 @@
         <v>287</v>
       </c>
       <c r="B121" s="36">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C121" s="30">
-        <v>22437</v>
+        <v>31712</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -13994,10 +13994,10 @@
         <v>287</v>
       </c>
       <c r="B122" s="36">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C122" s="30">
-        <v>6655</v>
+        <v>27044</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -14005,10 +14005,10 @@
         <v>287</v>
       </c>
       <c r="B123" s="36">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C123" s="30">
-        <v>11626</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -14016,10 +14016,10 @@
         <v>287</v>
       </c>
       <c r="B124" s="36">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C124" s="30">
-        <v>20001</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -14027,10 +14027,10 @@
         <v>287</v>
       </c>
       <c r="B125" s="36">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C125" s="30">
-        <v>25810</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -14038,10 +14038,10 @@
         <v>287</v>
       </c>
       <c r="B126" s="36">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C126" s="30">
-        <v>28783</v>
+        <v>20094</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -14049,10 +14049,10 @@
         <v>287</v>
       </c>
       <c r="B127" s="36">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C127" s="30">
-        <v>24764</v>
+        <v>26467</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -14060,10 +14060,10 @@
         <v>287</v>
       </c>
       <c r="B128" s="36">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C128" s="30">
-        <v>17439</v>
+        <v>29124</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -14071,10 +14071,10 @@
         <v>287</v>
       </c>
       <c r="B129" s="36">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C129" s="30">
-        <v>2517</v>
+        <v>25198</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -14082,43 +14082,43 @@
         <v>287</v>
       </c>
       <c r="B130" s="36">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C130" s="30">
-        <v>8479</v>
+        <v>17985</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B131" s="36">
-        <v>44179</v>
-      </c>
-      <c r="C131" s="23">
-        <v>1</v>
+        <v>44220</v>
+      </c>
+      <c r="C131" s="30">
+        <v>2620</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B132" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C132" s="23">
-        <v>5</v>
+        <v>44221</v>
+      </c>
+      <c r="C132" s="30">
+        <v>10984</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B133" s="36">
-        <v>44181</v>
-      </c>
-      <c r="C133" s="23">
-        <v>34</v>
+        <v>44222</v>
+      </c>
+      <c r="C133" s="30">
+        <v>11349</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -14126,10 +14126,10 @@
         <v>288</v>
       </c>
       <c r="B134" s="36">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C134" s="23">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -14137,10 +14137,10 @@
         <v>288</v>
       </c>
       <c r="B135" s="36">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C135" s="23">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -14148,10 +14148,10 @@
         <v>288</v>
       </c>
       <c r="B136" s="36">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C136" s="23">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -14159,10 +14159,10 @@
         <v>288</v>
       </c>
       <c r="B137" s="36">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C137" s="23">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -14170,10 +14170,10 @@
         <v>288</v>
       </c>
       <c r="B138" s="36">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C138" s="23">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -14181,10 +14181,10 @@
         <v>288</v>
       </c>
       <c r="B139" s="36">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C139" s="23">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -14192,10 +14192,10 @@
         <v>288</v>
       </c>
       <c r="B140" s="36">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C140" s="23">
-        <v>573</v>
+        <v>88</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -14203,10 +14203,10 @@
         <v>288</v>
       </c>
       <c r="B141" s="36">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C141" s="23">
-        <v>400</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -14214,10 +14214,10 @@
         <v>288</v>
       </c>
       <c r="B142" s="36">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C142" s="23">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -14225,10 +14225,10 @@
         <v>288</v>
       </c>
       <c r="B143" s="36">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C143" s="23">
-        <v>505</v>
+        <v>575</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -14236,10 +14236,10 @@
         <v>288</v>
       </c>
       <c r="B144" s="36">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C144" s="30">
-        <v>367</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -14247,10 +14247,10 @@
         <v>288</v>
       </c>
       <c r="B145" s="36">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C145" s="30">
-        <v>2623</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -14258,10 +14258,10 @@
         <v>288</v>
       </c>
       <c r="B146" s="36">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C146" s="30">
-        <v>5423</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -14269,10 +14269,10 @@
         <v>288</v>
       </c>
       <c r="B147" s="36">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C147" s="30">
-        <v>6948</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -14280,10 +14280,10 @@
         <v>288</v>
       </c>
       <c r="B148" s="36">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C148" s="30">
-        <v>3155</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -14291,10 +14291,10 @@
         <v>288</v>
       </c>
       <c r="B149" s="36">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C149" s="30">
-        <v>388</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -14302,10 +14302,10 @@
         <v>288</v>
       </c>
       <c r="B150" s="36">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C150" s="30">
-        <v>1998</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -14313,10 +14313,10 @@
         <v>288</v>
       </c>
       <c r="B151" s="36">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C151" s="30">
-        <v>1216</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -14324,10 +14324,10 @@
         <v>288</v>
       </c>
       <c r="B152" s="36">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C152" s="30">
-        <v>6505</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -14335,10 +14335,10 @@
         <v>288</v>
       </c>
       <c r="B153" s="36">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C153" s="30">
-        <v>5635</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -14346,10 +14346,10 @@
         <v>288</v>
       </c>
       <c r="B154" s="36">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C154" s="30">
-        <v>7355</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -14357,10 +14357,10 @@
         <v>288</v>
       </c>
       <c r="B155" s="36">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C155" s="30">
-        <v>9261</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -14368,10 +14368,10 @@
         <v>288</v>
       </c>
       <c r="B156" s="36">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C156" s="30">
-        <v>8460</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -14379,10 +14379,10 @@
         <v>288</v>
       </c>
       <c r="B157" s="36">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C157" s="30">
-        <v>4715</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -14390,10 +14390,10 @@
         <v>288</v>
       </c>
       <c r="B158" s="36">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C158" s="30">
-        <v>1379</v>
+        <v>9262</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -14401,10 +14401,10 @@
         <v>288</v>
       </c>
       <c r="B159" s="36">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C159" s="30">
-        <v>8165</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -14412,10 +14412,10 @@
         <v>288</v>
       </c>
       <c r="B160" s="36">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C160" s="30">
-        <v>8670</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -14423,10 +14423,10 @@
         <v>288</v>
       </c>
       <c r="B161" s="36">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C161" s="30">
-        <v>11059</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -14434,10 +14434,10 @@
         <v>288</v>
       </c>
       <c r="B162" s="36">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C162" s="30">
-        <v>11061</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -14445,10 +14445,10 @@
         <v>288</v>
       </c>
       <c r="B163" s="36">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C163" s="30">
-        <v>7706</v>
+        <v>8673</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -14456,10 +14456,10 @@
         <v>288</v>
       </c>
       <c r="B164" s="36">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C164" s="30">
-        <v>4495</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -14467,10 +14467,10 @@
         <v>288</v>
       </c>
       <c r="B165" s="36">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C165" s="30">
-        <v>1659</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -14478,10 +14478,10 @@
         <v>288</v>
       </c>
       <c r="B166" s="36">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C166" s="30">
-        <v>4920</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -14489,10 +14489,10 @@
         <v>288</v>
       </c>
       <c r="B167" s="36">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C167" s="30">
-        <v>7497</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -14500,10 +14500,10 @@
         <v>288</v>
       </c>
       <c r="B168" s="36">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C168" s="30">
-        <v>8987</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -14511,10 +14511,10 @@
         <v>288</v>
       </c>
       <c r="B169" s="36">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C169" s="30">
-        <v>8482</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -14522,10 +14522,10 @@
         <v>288</v>
       </c>
       <c r="B170" s="36">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C170" s="30">
-        <v>6949</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -14533,10 +14533,10 @@
         <v>288</v>
       </c>
       <c r="B171" s="36">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C171" s="30">
-        <v>4900</v>
+        <v>9102</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -14544,10 +14544,10 @@
         <v>288</v>
       </c>
       <c r="B172" s="36">
-        <v>44220</v>
-      </c>
-      <c r="C172" s="23">
-        <v>655</v>
+        <v>44217</v>
+      </c>
+      <c r="C172" s="30">
+        <v>8670</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -14555,54 +14555,54 @@
         <v>288</v>
       </c>
       <c r="B173" s="36">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C173" s="30">
-        <v>2351</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B174" s="36">
-        <v>44180</v>
-      </c>
-      <c r="C174" s="23">
-        <v>2</v>
+        <v>44219</v>
+      </c>
+      <c r="C174" s="30">
+        <v>5008</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B175" s="36">
-        <v>44181</v>
+        <v>44220</v>
       </c>
       <c r="C175" s="23">
-        <v>5</v>
+        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B176" s="36">
-        <v>44182</v>
-      </c>
-      <c r="C176" s="23">
-        <v>13</v>
+        <v>44221</v>
+      </c>
+      <c r="C176" s="30">
+        <v>3000</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B177" s="36">
-        <v>44183</v>
-      </c>
-      <c r="C177" s="23">
-        <v>40</v>
+        <v>44222</v>
+      </c>
+      <c r="C177" s="30">
+        <v>2978</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -14610,10 +14610,10 @@
         <v>289</v>
       </c>
       <c r="B178" s="36">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C178" s="23">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -14621,10 +14621,10 @@
         <v>289</v>
       </c>
       <c r="B179" s="36">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C179" s="23">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -14632,10 +14632,10 @@
         <v>289</v>
       </c>
       <c r="B180" s="36">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C180" s="23">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -14643,10 +14643,10 @@
         <v>289</v>
       </c>
       <c r="B181" s="36">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C181" s="23">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -14654,10 +14654,10 @@
         <v>289</v>
       </c>
       <c r="B182" s="36">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C182" s="23">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -14665,10 +14665,10 @@
         <v>289</v>
       </c>
       <c r="B183" s="36">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C183" s="23">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -14676,10 +14676,10 @@
         <v>289</v>
       </c>
       <c r="B184" s="36">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C184" s="23">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -14687,10 +14687,10 @@
         <v>289</v>
       </c>
       <c r="B185" s="36">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C185" s="23">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -14698,10 +14698,10 @@
         <v>289</v>
       </c>
       <c r="B186" s="36">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C186" s="23">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -14709,10 +14709,10 @@
         <v>289</v>
       </c>
       <c r="B187" s="36">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C187" s="23">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -14720,10 +14720,10 @@
         <v>289</v>
       </c>
       <c r="B188" s="36">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C188" s="23">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -14731,10 +14731,10 @@
         <v>289</v>
       </c>
       <c r="B189" s="36">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C189" s="23">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -14742,10 +14742,10 @@
         <v>289</v>
       </c>
       <c r="B190" s="36">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C190" s="23">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -14753,10 +14753,10 @@
         <v>289</v>
       </c>
       <c r="B191" s="36">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C191" s="23">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -14764,10 +14764,10 @@
         <v>289</v>
       </c>
       <c r="B192" s="36">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C192" s="23">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -14775,10 +14775,10 @@
         <v>289</v>
       </c>
       <c r="B193" s="36">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C193" s="23">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -14786,10 +14786,10 @@
         <v>289</v>
       </c>
       <c r="B194" s="36">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C194" s="23">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -14797,10 +14797,10 @@
         <v>289</v>
       </c>
       <c r="B195" s="36">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C195" s="23">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -14808,10 +14808,10 @@
         <v>289</v>
       </c>
       <c r="B196" s="36">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C196" s="23">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -14819,10 +14819,10 @@
         <v>289</v>
       </c>
       <c r="B197" s="36">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C197" s="23">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -14830,10 +14830,10 @@
         <v>289</v>
       </c>
       <c r="B198" s="36">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C198" s="23">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -14841,10 +14841,10 @@
         <v>289</v>
       </c>
       <c r="B199" s="36">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C199" s="23">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -14852,10 +14852,10 @@
         <v>289</v>
       </c>
       <c r="B200" s="36">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C200" s="23">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -14863,10 +14863,10 @@
         <v>289</v>
       </c>
       <c r="B201" s="36">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C201" s="23">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -14874,10 +14874,10 @@
         <v>289</v>
       </c>
       <c r="B202" s="36">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C202" s="23">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -14885,10 +14885,10 @@
         <v>289</v>
       </c>
       <c r="B203" s="36">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C203" s="23">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -14896,10 +14896,10 @@
         <v>289</v>
       </c>
       <c r="B204" s="36">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C204" s="23">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -14907,7 +14907,7 @@
         <v>289</v>
       </c>
       <c r="B205" s="36">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C205" s="23">
         <v>57</v>
@@ -14918,10 +14918,10 @@
         <v>289</v>
       </c>
       <c r="B206" s="36">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C206" s="23">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -14929,10 +14929,10 @@
         <v>289</v>
       </c>
       <c r="B207" s="36">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C207" s="23">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -14940,10 +14940,10 @@
         <v>289</v>
       </c>
       <c r="B208" s="36">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C208" s="23">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -14951,10 +14951,10 @@
         <v>289</v>
       </c>
       <c r="B209" s="36">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C209" s="23">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -14962,10 +14962,10 @@
         <v>289</v>
       </c>
       <c r="B210" s="36">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C210" s="23">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -14973,10 +14973,10 @@
         <v>289</v>
       </c>
       <c r="B211" s="36">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C211" s="23">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -14984,10 +14984,10 @@
         <v>289</v>
       </c>
       <c r="B212" s="36">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C212" s="23">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -14995,10 +14995,10 @@
         <v>289</v>
       </c>
       <c r="B213" s="36">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C213" s="23">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -15006,10 +15006,10 @@
         <v>289</v>
       </c>
       <c r="B214" s="36">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C214" s="23">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -15017,10 +15017,65 @@
         <v>289</v>
       </c>
       <c r="B215" s="36">
+        <v>44217</v>
+      </c>
+      <c r="C215" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B216" s="36">
+        <v>44218</v>
+      </c>
+      <c r="C216" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B217" s="36">
+        <v>44219</v>
+      </c>
+      <c r="C217" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B218" s="36">
+        <v>44220</v>
+      </c>
+      <c r="C218" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B219" s="36">
         <v>44221</v>
       </c>
-      <c r="C215" s="23">
-        <v>29</v>
+      <c r="C219" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="B220" s="36">
+        <v>44222</v>
+      </c>
+      <c r="C220" s="23">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/AccessibleVaccineDashboardData/2021-01-27.xlsx
+++ b/AccessibleVaccineDashboardData/2021-01-27.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aearl914\Desktop\COVID-19\Daily County Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFCC7F70-E4FE-4779-BEFA-8F78EA958FBA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5739CE8A-4F45-4409-974E-575F98BC5DBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
